--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA953CBC-0B11-4F24-A3DB-A06F1E88FDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C3E725-590B-477A-B655-D1D32B7678D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="635">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -409,382 +409,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10012,10014,10022,10023,10036,10037,10038,10045,10051,10057,10061,10065,10067,10069,10073,10075,10076,10077,10078,10079,10089,10094,10095,10097,10098,10101*9999,10102,10103,10104,10105,10106,10107,10108,10109,10117,10118,10119,10120,10121,10122,10123,10124,10125,10126,10127*7,10128*7,10129,10130,10131,10132,10133,10134,10138,10139,10142,10143,10045,10046,10047,10048,10149,10151,10153,10166,10167*5,10169,10170,10173,10174,10176,10177,10179</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10012,10014,10022,10023,10024,10041,10044,10051,10052,10061,10066,10067,10069,10070,10071,10076,10077,10078,10079,10089,10091,10098,10102,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10117,10118,10119,10120,10121,10122,10123,10124,10125,10126,10127*8,10128*8,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10045,10046,10047,10048,10149,10151,10163,10164,10165,10167*5,10169,10170,10172,10175,10176,10177,10179,10180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10007,10012,10014,10022,10023,10024,10026,10031,10034,10035,10036,10037,10038,10039,10041,10043,10044,10047,10048,10049,10050,10051,10052,10053,10058,10059,10060,10061,10066,10069,10076,10077,10078,10089,10092,10093,10094,10099,10100,10123,10124,10125,10126,10127*2,10128*2,10140,10141,10142,10143,10144,10047,10048,10150,10153,10163,10164,10165,10166,10168,10172,10177,10178,10182</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10012,10014,10022,10023,10036,10037,10038,10041,10044,10047,10049,10051,10052,10057,10058,10059,10060,10061,10066,10067,10069,10073,10076,10077,10078,10079,10089,10093,10094,10096,10097,10098,10101*100,10102,10103,10104,10105,10106,10107,10108,10109,10117,10118,10119,10120,10121,10122,10123,10124,10125,10126,10127*6,10128*6,10129,10131,10132,10133,10134,10138,10139,10140,10141,10142,10143,10045,10046,10047,10048,10149,10151,10153,10166,10168,10169,10171,10179,10183</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10012,10014,10022,10023,10036,10037,10038,10043,10044,10045,1004710048,10049,10050,10052,10054,10057,10058,10061,10065,10067,10069,10072,10073,10075,10076,10077,10078,10089,10091,10093,10094,10095,10096,10098,10099,10100,10101*100,10123,10124,10125,10126,10127*4,10128*4,10130,10140,10141,10142,10143,10144,10045,10046,10047,10048,10150,10153,10166,10168,10169,10172,10178,10179,10183,10224</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10183,10187,10188,10189,10190,10194*10,10198*10000,10199*10000,10200*10000,10201,10203*99999,10205*99999,10211,10212,10213,10214,10215,10216,10217,10218*2,10219*3,10224,10225,10226*3,10227,10258*10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10007,10008,10069,10070,10071,10081,10083,10090*0.5,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190,10191*5,10192*99999,10194*3,10201,10206*99999,10215,10216,10217,10218*2,10219*3,10220*10,10221*10,10223*99999,10224,10226*10,10231*999999,10233*999999,10237*100,10238*100,10239*10,10247,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10008,10069,10070,10071,10081,10083,10085,10086,10189,10190,10191*3,10195*1000,10196*4000,10197*1000,10206*99999,10220*15,10221*15,10223*99999,10230*999999,10237*999999,10238*999999,10239*999999,10247,10249*999999,10253,10254,10255,10256,10257,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*3,10086,10090*0.5,10189,10191,10192*99999,10195*1000,10196*4000,10197*1000,10207*99999,10206,10220*50,10221*50,10223*99999,10231*999999,10233*999999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10268*2,10269,10270,10271</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*5,10086,10189,10192*99999,10195*1000,10196*4000,10197*1000,10206*99999,10222*99999,10223*99999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10273,10274,10275,10276</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*10,10086,10189,10195*1000,10196*2000,10197*5000,10206*99999,10228*999999,10240,10241,10242,10243,10244,10245,10246,10249*999999,10253,10254,10255,10256,10257,10264*9999999,10268*2,10269,10270,10271,10272,10273,10274,10275,10276</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*50,10086,10189,10197*99999,10206*99999,10229*999999,10249*999999,10253,10254,10255,10256,10257,10266,10273,10274,10275,10276</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10086,10087,10088*10,10189,10235*999999,10252,10254,10266,10268,10269,10270,10271,10273,10274,10275,10276,10281,10282*0.001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10083,10085*9999,10086,10087,10088,10189,10210*99999,10252,10257,10266,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10085*9999,10086,10087,10088*10,10189,10210*99999,10252,10256,10266,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10086,10087,10189,10253,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10083,10085*500,10086,10087,10189,10207*99999,10234*999999,10250*999999,10251*999999,10253,10266,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10086,10087,10088,10189,10236*99999999,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*9999999,10290*99999,10294*99999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*999999999,10290*99999,10294*999999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999,10294*9999999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10189,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10256,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10254,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10288,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10257,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10254,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10012,10014,10022,10023,10024,10045,10047,10054,10061,10066,10069,10070,10071,10076,10077,10078,10079,10080,10089,10090*0.5,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125,10126,10127*9,10128*9,10129,10131,10132,10133,10134,10135,10138,10139,10140,10141,10142,10143,10045,10046,10047,10048,10152,10154,10167*4,10169,10170,10172,10176,10179,10180,10309</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10158,10159*0.1,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10182,10183,10187,10188,10189,10194*5,10198*10000,10199*10000,10200*10000,10201,10203*99999,10211,10212,10213,10214,10215,10216,10224,10225,10226,10227,10254,10258*10000,10309</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10091,10085,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190,10191*3,10194*5,10201,10205*99999,10206*99999,10211,10212,10213,10214,10215,10216,10217*2,10218*3,10219*5,10220*5,10221*5,10223*10,10224,10225,10226*5,10230*9999999,10259*999999,10309</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10012,10014,10022,10023,10069,10070,10071,10072,10079,10080,10089,10095,10096,10099,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125,10126,10127*10,10128*10,10129,10131,10132,10133,10134,10135,10136,10137,10138,10139,10140,10141,10142,10143,10144,10045,10046,10047,10048,10149,10151,10152,10154,10167*3,10169,10170,10171,10172,10176,10180,10311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10089,10097,10155*3,10156,10157*200,10158,10159*0.01,10160,10161,10162*0.1,10163,10164,10165,10169,10171,10180,10181,10182,10183,10184*10,10185*10,10189,10201,10211,10212,10213,10214,10215,10216,10224,10225,10253,10254,10255,10256,10257,10309,10311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10155*3,10156,10157*9999,10158,10159*0.05,10160,10161,10162*0.1,10085,10163,10164,10165,10169,10171,10180,10181,10182,10183,10186*5,10187,10188,10189,10201,10202*10,10211*5,10212*5,10214,10215,10216,10224,10225,10227,10253,10257,10309,10311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10012,10014,10022,10023,10069,10070,10071,10079,10080,10089,10096,10097,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125,10126,10127*100,10128*100,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10045,10046,10047,10048,10150,10149,10151,10154,10155*3,10156,10157*50,10160,10167*2,10169,10171,10172,10176,10180,10182,10214,10311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10308,10312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*0.1,10291*0.1,10310,10312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10310,10312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10292,10293,10291*0.1,10310,10312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290*5,10291*10,10294,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*559,10294*3,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290*3,10291*55599,10294*3,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*100,10290*3,10291*999999,10294*5,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5000,10280*5000,10281*5000,10290*100,10294*10,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*50000,10280*50000,10281*5000,10290*1000,10294*50,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*99999,10280*99999,10281*9999,10290*100000,10294*500,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*99999999,10280*99999999,10281*999999,10290*100000,10294*52554,10313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290,10291,10310,10312,10313,10314</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*9,10290,10291,10310,10313,10314</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*50,10290,10291*5,10310,10313,10314</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290*3,10294,10313,10314</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*15,10290,10291*5,10310,10313,10314,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290,10291*5,10294,10313,10314,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*100,10290*5,10294,10313,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*50,10294,10313,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*999,10294,10313,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*992,10294*3,10313,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*100,10290*3,10294*5,10313,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*1000,10290*5,10294*5,10313,10315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10280,10281,10290*0.1,10292,10293,10291*0.1,10307*999,10310,10312,10316*15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290*0.1,10292,10293,10291,10310,10312,10313,10314,10316</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10255,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10256,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10318,10319,10320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.1,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307*999,10316,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.01,10292,10293,10291*0.01,10308,10310,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10292,10293,10291*0.01,10308,10316*3,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*500,10287*100,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*10,10287*50,10289*0.1,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295*66,10296*66,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,1028+B577,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10286,10287,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.01,10286,10287,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10288,10289*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320.10322</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10321,10322*0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10322*0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10322*0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10283,10288,10289*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10322*0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322*0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10323</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1956,24 +1592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1</t>
-  </si>
-  <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10347</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353</t>
-  </si>
-  <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$age</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1983,6 +1601,466 @@
   </si>
   <si>
     <t>talent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的天赋池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1052,1054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1053,1055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1051,1059</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050,1059</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1049,1059</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1057,1060,1062</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361</t>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1069,1070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10036,10037,10038,10043,10044,10045,1004710048,10049,10050,10052,10054,10057,10058,10061,10065,10067,10069,10072,10073,10075,10076,10077,10078,10089,10091,10093,10094,10095,10096,10098,10099,10100,10101*100,10123,10124,10125*0.1,10126*0.1,10127,10128,10130,10140,10141,10142,10143,10144,10045,10046,10047,10048,10150,10153,10166,10168,10169,10172,10178,10179,10183,10224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10036,10037,10038,10041,10044,10047,10049,10051,10052,10057,10058,10059,10060,10061,10066,10067,10069,10073,10076,10077,10078,10079,10089,10093,10094,10096,10097,10098,10101*100,10102,10103,10104,10105,10106,10107,10108,10109,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127*0.1,10128*0.1,10129,10131,10132,10133,10134,10138,10139,10140,10141,10142,10143,10045,10046,10047,10048,10149,10151,10153,10166,10168,10169,10171,10179,10183</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10036,10037,10038,10045,10051,10057,10061,10065,10067,10069,10073,10075,10076,10077,10078,10079,10089,10094,10095,10097,10098,10101*9999,10102,10103,10104,10105,10106,10107,10108,10109,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127*0.1,10128*0.1,10129,10130,10131,10132,10133,10134,10138,10139,10142,10143,10045,10046,10047,10048,10149,10151,10153,10166,10167*5,10169,10170,10173,10174,10176,10177,10179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10024,10041,10044,10051,10052,10061,10066,10067,10069,10070,10071,10076,10077,10078,10079,10089,10091,10098,10102,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10045,10046,10047,10048,10149,10151,10163,10164,10165,10167*5,10169,10170,10172,10175,10176,10177,10179,10180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10024,10045,10047,10054,10061,10066,10069,10070,10071,10076,10077,10078,10079,10080,10089,10090*0.5,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127*0.1,10128*0.1,10129,10131,10132,10133,10134,10135,10138,10139,10140,10141,10142,10143,10045,10046,10047,10048,10152,10154,10167*4,10169,10170,10172,10176,10179,10180,10309</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10069,10070,10071,10072,10079,10080,10089,10095,10096,10099,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10131,10132,10133,10134,10135,10136,10137,10138,10139,10140,10141,10142,10143,10144,10045,10046,10047,10048,10149,10151,10152,10154,10167*3,10169,10170,10171,10172,10176,10180,10311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10012,10014,10022,10023,10069,10070,10071,10079,10080,10089,10096,10097,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10045,10046,10047,10048,10150,10149,10151,10154,10155*3,10156,10157*50,10160,10167*2,10169,10171,10172,10176,10180,10182,10214,10311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069,10070,10071,10080,10089,10097,10155*3,10156,10157*200,10158,10159*0.01,10160,10161,10162*0.1,10163,10164,10165,10169,10171,10180,10181,10182,10183,10184*10,10185*10,10189,10201,10211,10212,10213,10214,10215,10216,10224,10225,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10309,10311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10155*3,10156,10157*9999,10158,10159*0.05,10160,10161,10162*0.1,10085,10163,10164,10165,10169,10171,10180,10181,10182,10183,10186*5,10187,10188,10189,10201,10202*10,10211*5,10212*5,10214,10215,10216,10224,10225,10227,10253*0.1,10257*0.1,10309,10311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10069,10070,10071,10081,10083,10085,10086,10189,10190,10191*3,10195*1000,10196*4000,10197*1000,10206*99999,10220*15,10221*15,10223*99999,10230*999999,10237*999999,10238*999999,10239*999999,10247,10249*999999,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346*999999,10349*0.01,10350*0.02,10351*0.1,10361</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367</t>
+  </si>
+  <si>
+    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10368*99999,10369,10370,10371,10372,10373,10374,10375,10376,10367,10377,10380*0.01,10381*0.01,10382*0.01,10383*0.01,10384*0.01,10385*0.01,10386*0.001,10387*0.001,10388*0.001,10389*0.001,10390*0.001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10369,10370,10371,10372,10373,10374,10375,10376,10367,10377,10380*0.01,10381*0.01,10382*0.01,10383*0.01,10384*0.01,10385*0.01,10386*0.001,10387*0.001,10388*0.001,10389*0.001,10390*0.001</t>
+  </si>
+  <si>
+    <t>10369,10370,10371,10372,10373,10374,10375,10376,10367,10377,10380*0.01,10381*0.01,10382*0.01,10383*0.01,10384*0.01,10385*0.01,10386*0.001,10387*0.001,10388*0.001,10389*0.001,10390*0.001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10379,10391</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10158,10159*0.1,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10182,10183,10187,10188,10189,10194*5,10198*10000,10199*10000,10200*10000,10201,10203*99999,10211,10212,10213,10214,10215,10216,10224,10225,10226,10227,10254*0.1,10258*10000,10309,10410,10411,10412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10183,10187,10188,10189,10190,10194*10,10198*10000,10199*10000,10200*10000,10201,10203*99999,10205*99999,10211,10212,10213,10214,10215,10216,10217,10218*2,10219*3,10224,10225,10226*3,10227,10258*10000,10410,10411,10412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10091,10085,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190,10191*3,10194*5,10201,10205*99999,10206*99999,10211,10212,10213,10214,10215,10216,10217*2,10218*3,10219*5,10220*5,10221*5,10223*10,10224,10225,10226*5,10230*9999999,10259*999999,10309,10410,10411,10412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10081,10083,10085*3,10086,10090*0.5,10189,10191,10192*99999,10195*1000,10196*4000,10197*1000,10207*99999,10206,10220*50,10221*50,10223*99999,10231*999999,10233*999999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10268*2,10269,10270,10271,10410,10411,10412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10083,10085*9999,10086,10087,10088,10189,10210*99999,10252,10257*0.1,10266,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10083,10085*500,10086,10087,10189,10207*99999,10234*999999,10250*999999,10251*999999,10253*0.1,10266,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288,10410,10411,10430,10431,10432,10433,10434,10435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10081,10083,10085*50,10086,10189,10197*99999,10206*99999,10229*999999,10249*999999,10253,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10266,10273,10274,10275,10276,10410,10411,10430,10431,10432,10433,10434,10435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10081,10083,10085*10,10086,10189,10195*1000,10196*2000,10197*5000,10206*99999,10228*999999,10240,10241,10242,10243,10244,10245,10246,10249*999999,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10264*9999999,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10410,10411,10430,10431,10432,10433,10434,10435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10081,10083,10085*5,10086,10189,10192*99999,10195*1000,10196*4000,10197*1000,10206*99999,10222*99999,10223*99999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10273,10274,10275,10276,10430,10431,10432,10433,10434,10435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999,10294*9999999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*999999999,10290*99999,10294*999999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*9999999,10290*99999,10294*99999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*99999999,10280*99999999,10281*999999,10290*100000,10294*52554,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*99999,10280*99999,10281*9999,10290*100000,10294*500,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*50000,10280*50000,10281*5000,10290*1000,10294*50,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5000,10280*5000,10281*5000,10290*100,10294*10,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*1000,10290*5,10294*5,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*100,10290*3,10294*5,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*100,10290*3,10291*999999,10294*5,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290*3,10291*55599,10294*3,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*992,10294*3,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*999,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*559,10294*3,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*50,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290*5,10291*10,10294,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*100,10290*5,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290*3,10294,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10308,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10292,10293,10291*0.01,10308,10316*3,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*500,10287*100,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*10,10287*50,10289*0.1,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295*66,10296*66,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,1028+B577,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10286,10287,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.01,10286,10287,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10321,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320.10322,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10288,10289*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.1,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10283,10288,10289*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10322*0.1,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322*0.1,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10256*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10255*0.1,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10254*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10087,10253*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+  </si>
+  <si>
+    <t>10069,10070,10071,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10086,10087,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10086,10087,10254,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10288,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10086,10087,10256,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10086,10087,10189,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10086,10087,10189,10253*0.1,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10086,10087,10088,10189,10236*99999999,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10086,10087,10088*10,10189,10235*999999,10252,10254*0.1,10266,10268,10269,10270,10271,10273,10274,10275,10276,10281,10282*0.001,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10069,10070,10071,10085*9999,10086,10087,10088*10,10189,10210*99999,10252,10256*0.1,10266,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10458,10459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307*999,10316,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10280,10281,10290*0.1,10292,10293,10291*0.1,10307*999,10310,10312,10316*15,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*0.1,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10292,10293,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290*0.1,10292,10293,10291,10310,10312,10313,10314,10316,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290,10291,10310,10312,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*9,10290,10291,10310,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*15,10290,10291*5,10310,10313,10314,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*50,10290,10291*5,10310,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290,10291*5,10294,10313,10314,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2356,37 +2434,40 @@
   <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="123" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="123" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" style="3"/>
-    <col min="2" max="2" width="50.4140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="25.4140625" style="3"/>
+    <col min="1" max="1" width="25.44140625" style="3"/>
+    <col min="2" max="2" width="50.44140625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="25.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>516</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>517</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2394,7 +2475,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,7 +2491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2499,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2426,3377 +2507,4013 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+      <c r="B212" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="B213" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="B214" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="B215" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="B216" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="B217" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="B218" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="B219" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="B220" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+      <c r="B221" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="B222" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="B223" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="B224" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="B225" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
+      <c r="B226" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+      <c r="B227" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="B228" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="B229" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="B230" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="B231" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="B232" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="B233" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="B234" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="B235" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
+      <c r="B236" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="B237" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+      <c r="B238" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+      <c r="B239" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="B240" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
+      <c r="B241" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
+      <c r="B242" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="B243" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="B244" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+      <c r="B245" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="B246" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+      <c r="B247" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="B248" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="B249" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
+      <c r="B250" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="B251" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+      <c r="B252" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="B253" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+      <c r="B254" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="B255" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+      <c r="B256" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+      <c r="B257" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="B258" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="B259" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
+      <c r="B260" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="B261" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="B262" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="B263" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="B264" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="B265" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="B266" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="B267" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="B268" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="B269" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="B270" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="B271" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="B272" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="B273" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="B274" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="B275" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="B276" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="B277" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="B278" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="B279" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="B280" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="B281" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="B282" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="B283" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="B284" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="B285" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="B286" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="B287" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="B288" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="B289" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="B290" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="B291" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="B292" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="B293" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="B294" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="B295" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="B296" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="B297" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="B298" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="B299" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="B300" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="B301" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="B302" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="B303" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="B304" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="B305" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="B306" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="B307" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="B308" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="B309" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="B310" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="B311" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="B312" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+      <c r="B313" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="B314" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="B315" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="B316" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="B317" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="B318" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="B319" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="B320" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="B321" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="B322" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="B323" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="B324" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="B325" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="B326" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="B327" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="B328" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="B329" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="B330" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="B331" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="B332" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="B333" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="B334" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="B335" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="B336" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="B337" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="B338" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="B339" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="B340" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="B341" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="B342" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="B343" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="B344" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="B345" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="B346" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="B347" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="B348" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="B349" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="B350" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+      <c r="B351" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="B352" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="B353" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="B354" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="B355" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="B356" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
+      <c r="B357" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="B358" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+      <c r="B359" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
+      <c r="B360" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
+      <c r="B361" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
+      <c r="B362" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+      <c r="B363" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
+      <c r="B364" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
+      <c r="B365" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+      <c r="B366" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+      <c r="B367" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
+      <c r="B368" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
+      <c r="B369" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
+      <c r="B370" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+      <c r="B371" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
+      <c r="B372" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
+      <c r="B373" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="3" t="s">
+      <c r="B374" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="3" t="s">
+      <c r="B375" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
+      <c r="B376" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
+      <c r="B377" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
+      <c r="B378" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
+      <c r="B379" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
+      <c r="B380" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
+      <c r="B381" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
+      <c r="B382" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B292" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
+      <c r="B383" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
+      <c r="B384" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="B385" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+      <c r="B386" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B296" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="B387" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B297" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
+      <c r="B388" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B298" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
+      <c r="B389" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
+      <c r="B390" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
+      <c r="B391" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
+      <c r="B392" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
+      <c r="B393" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="3" t="s">
+      <c r="B394" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
+      <c r="B395" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
+      <c r="B396" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
+      <c r="B397" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="3" t="s">
+      <c r="B398" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
+      <c r="B399" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="3" t="s">
+      <c r="B400" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="3" t="s">
+      <c r="B401" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
+      <c r="B402" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
+      <c r="B403" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
+      <c r="B404" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
+      <c r="B405" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="3" t="s">
+      <c r="B406" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
+      <c r="B407" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
+      <c r="B408" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
+      <c r="B409" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
+      <c r="B410" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
+      <c r="B411" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
+      <c r="B412" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
+      <c r="B413" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
+      <c r="B414" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="3" t="s">
+      <c r="B415" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
+      <c r="B416" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
+      <c r="B417" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
+      <c r="B418" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="3" t="s">
+      <c r="B419" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
+      <c r="B420" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
+      <c r="B421" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="3" t="s">
+      <c r="B422" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
+      <c r="B423" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
+      <c r="B424" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
+      <c r="B425" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
+      <c r="B426" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="3" t="s">
+      <c r="B427" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
+      <c r="B428" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
+      <c r="B429" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
+      <c r="B430" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
+      <c r="B431" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
+      <c r="B432" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
+      <c r="B433" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="3" t="s">
+      <c r="B434" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
+      <c r="B435" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
+      <c r="B436" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
+      <c r="B437" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
+      <c r="B438" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="3" t="s">
+      <c r="B439" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="3" t="s">
+      <c r="B440" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
+      <c r="B441" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
+      <c r="B442" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
+      <c r="B443" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
+      <c r="B444" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
+      <c r="B445" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
+      <c r="B446" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="3" t="s">
+      <c r="B447" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
+      <c r="B448" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="3" t="s">
+      <c r="B449" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
+      <c r="B450" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="3" t="s">
+      <c r="B451" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
+      <c r="B452" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="3" t="s">
+      <c r="B453" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
+      <c r="B454" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="3" t="s">
+      <c r="B455" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
+      <c r="B456" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="3" t="s">
+      <c r="B457" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
+      <c r="B458" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
+      <c r="B459" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="3" t="s">
+      <c r="B460" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="3" t="s">
+      <c r="B461" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="3" t="s">
+      <c r="B462" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
+      <c r="B463" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="3" t="s">
+      <c r="B464" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="3" t="s">
+      <c r="B465" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
+      <c r="B466" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
+      <c r="B467" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="3" t="s">
+      <c r="B468" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="3" t="s">
+      <c r="B469" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
+      <c r="B470" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
+      <c r="B471" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
+      <c r="B472" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
+      <c r="B473" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
+      <c r="B474" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="3" t="s">
+      <c r="B475" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
+      <c r="B476" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="3" t="s">
+      <c r="B477" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="3" t="s">
+      <c r="B478" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
+      <c r="B479" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
+      <c r="B480" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
+      <c r="B481" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
+      <c r="B482" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
+      <c r="B483" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
+      <c r="B484" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
+      <c r="B485" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
+      <c r="B486" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="3" t="s">
+      <c r="B487" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="3" t="s">
+      <c r="B488" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="3" t="s">
+      <c r="B489" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
+      <c r="B490" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="3" t="s">
+      <c r="B491" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
+      <c r="B492" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="3" t="s">
+      <c r="B493" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
+      <c r="B494" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="s">
+      <c r="B495" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
+      <c r="B496" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="s">
+      <c r="B497" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
+      <c r="B498" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
+      <c r="B499" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
+      <c r="B500" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="s">
+      <c r="B501" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
+      <c r="B502" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
+      <c r="B503" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB00722-5278-446E-9F74-9D01424CF0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C7A4E-338E-4174-9AD9-207E866C237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,15 +89,9 @@
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>25</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
   </si>
   <si>
     <t>34</t>
@@ -405,14 +393,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10008,10069,10070,10071,10081,10083,10090*0.5,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190,10191*5,10192*99999,10194*3,10201,10206*99999,10215,10216,10217,10218*2,10219*3,10220*10,10221*10,10223*99999,10224,10226*10,10231*999999,10233*999999,10237*100,10238*100,10239*10,10247,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10323</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1659,18 +1639,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10089,10097,10155*3,10156,10157*200,10158,10159*0.01,10160,10161,10162*0.1,10163,10164,10165,10169,10171,10180,10181,10182,10183,10184*10,10185*10,10189,10201,10211,10212,10213,10214,10215,10216,10224,10225,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10309,10311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10155*3,10156,10157*9999,10158,10159*0.05,10160,10161,10162*0.1,10085,10163,10164,10165,10169,10171,10180,10181,10182,10183,10186*5,10187,10188,10189,10201,10202*10,10211*5,10212*5,10214,10215,10216,10224,10225,10227,10253*0.1,10257*0.1,10309,10311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10069,10070,10071,10081,10083,10085,10086,10189,10190,10191*3,10195*1000,10196*4000,10197*1000,10206*99999,10220*15,10221*15,10223*99999,10230*999999,10237*999999,10238*999999,10239*999999,10247,10249*999999,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346*999999,10349*0.01,10350*0.02,10351*0.1,10361</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1705,166 +1673,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10158,10159*0.1,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10182,10183,10187,10188,10189,10194*5,10198*10000,10199*10000,10200*10000,10201,10203*99999,10211,10212,10213,10214,10215,10216,10224,10225,10226,10227,10254*0.1,10258*10000,10309,10410,10411,10412</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10091,10085,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190,10191*3,10194*5,10201,10205*99999,10206*99999,10211,10212,10213,10214,10215,10216,10217*2,10218*3,10219*5,10220*5,10221*5,10223*10,10224,10225,10226*5,10230*9999999,10259*999999,10309,10410,10411,10412</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10083,10085*9999,10086,10087,10088,10189,10210*99999,10252,10257*0.1,10266,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10083,10085*500,10086,10087,10189,10207*99999,10234*999999,10250*999999,10251*999999,10253*0.1,10266,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288,10410,10411,10430,10431,10432,10433,10434,10435</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*50,10086,10189,10197*99999,10206*99999,10229*999999,10249*999999,10253,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10266,10273,10274,10275,10276,10410,10411,10430,10431,10432,10433,10434,10435</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*10,10086,10189,10195*1000,10196*2000,10197*5000,10206*99999,10228*999999,10240,10241,10242,10243,10244,10245,10246,10249*999999,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10264*9999999,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10410,10411,10430,10431,10432,10433,10434,10435</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*5,10086,10189,10192*99999,10195*1000,10196*4000,10197*1000,10206*99999,10222*99999,10223*99999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10273,10274,10275,10276,10430,10431,10432,10433,10434,10435</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999,10294*9999999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*999999999,10290*99999,10294*999999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*9999999,10290*99999,10294*99999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*99999999,10280*99999999,10281*999999,10290*100000,10294*52554,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*99999,10280*99999,10281*9999,10290*100000,10294*500,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*50000,10280*50000,10281*5000,10290*1000,10294*50,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5000,10280*5000,10281*5000,10290*100,10294*10,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*1000,10290*5,10294*5,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*100,10290*3,10294*5,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*100,10290*3,10291*999999,10294*5,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290*3,10291*55599,10294*3,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*992,10294*3,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*999,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*559,10294*3,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*50,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290*5,10291*10,10294,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*100,10290*5,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290*3,10294,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10292,10293,10291*0.01,10308,10316*3,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307*999,10316,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10280,10281,10290*0.1,10292,10293,10291*0.1,10307*999,10310,10312,10316*15,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*0.1,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10292,10293,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290*0.1,10292,10293,10291,10310,10312,10313,10314,10316,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290,10291,10310,10312,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*9,10290,10291,10310,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*15,10290,10291*5,10310,10313,10314,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*50,10290,10291*5,10310,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290,10291*5,10294,10313,10314,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10007,10012,10014,10018,10021,10022,10023,10024,10026,10030,10031,10034,10035,10036,10037,10039,10041,10043,10048,10050,10053,10054,10058,10065,10069,10075,10076,10077,10078,10089,10092,10093,10099,10100,10123,10124,10125,10126,10127,10128,10130,10140,10141,10142,10143,10144,10047,10048,10150,10152,10153,10163,10164,10165,10166,10168,10177,10178</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1873,10 +1681,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10008,10022,10023,10069,10070,10071,10080,10081,10089,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10183,10187,10188,10189,10190,10194*10,10198*10000,10199*10000,10200*10000,10201,10203*99999,10205*99999,10211,10212,10213,10214,10215,10216,10217,10218*2,10219*3,10224,10225,10226*3,10227,10258*10000,10410,10411,10412,10259*999999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10007,10012,10014,10022,10023,10036,10037,10043,10044,10045,10047,10048,10049,10050,10052,10054,10057,10058,10061,10065,10067,10069,10072,10073,10075,10076,10077,10078,10089,10091,10093,10094,10095,10096,10098,10099,10100,10101*100,10123,10124,10125*0.1,10126*0.1,10127,10128,10130,10140,10141,10142,10143,10144,10145,10146,10147,10148,10150,10153,10166,10168,10169,10172,10178,10179,10183,10224</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1887,174 +1691,308 @@
     <t>10007,10012,10014,10022,10023,10036,10037,10038,10045,10051,10057,10061,10065,10067,10069,10073,10075,10076,10077,10078,10079,10089,10094,10095,10097,10098,10101*9999,10102,10103,10104,10105,10106,10107,10108,10109,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127*0.1,10128*0.1,10129,10130,10131,10132,10133,10134,10138,10139,10142,10143,10145,10146,10147,10148,10149,10151,10153,10166,10167*5,10169,10170,10173,10174,10176,10177,10179</t>
   </si>
   <si>
-    <t>10007,10012,10014,10022,10023,10024,10041,10044,10051,10052,10061,10066,10067,10069,10070,10071,10076,10077,10078,10079,10089,10091,10098,10102,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10145,10146,10147,10148,10149,10151,10163,10164,10165,10167*5,10169,10170,10172,10175,10176,10177,10179,10180</t>
-  </si>
-  <si>
-    <t>10007,10012,10014,10022,10023,10024,10045,10047,10054,10061,10066,10069,10070,10071,10076,10077,10078,10079,10080,10089,10090*0.5,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127*0.1,10128*0.1,10129,10131,10132,10133,10134,10135,10138,10139,10140,10141,10142,10143,10145,10146,10147,10148,10152,10154,10167*4,10169,10170,10172,10176,10179,10180,10309</t>
-  </si>
-  <si>
-    <t>10007,10008,10012,10014,10022,10023,10069,10070,10071,10079,10080,10089,10096,10097,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10145,10146,10147,10148,10150,10149,10151,10154,10155*3,10156,10157*50,10160,10167*2,10169,10171,10172,10176,10180,10182,10214,10311</t>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10085*9999,10086,10087,10088*10,10189,10210*99999,10252,10256*0.1,10266,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
-  </si>
-  <si>
-    <t>10007,10069,10070,10071,10086,10087,10088,10189,10236*99999999,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295*66,10296*66,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*500,10287*100,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
-  </si>
-  <si>
-    <t>10069,10070,10071,10086,10087,10189,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1</t>
+    <t>18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10086,10087,10256,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1</t>
+    <t>26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*10,10287*50,10289*0.1,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1</t>
+    <t>20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10461*0.1,10462*0.1</t>
+    <t>33</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10461*0.1,10462*0.1</t>
+    <t>10007,10012,10014,10022,10023,10024,10041,10044,10051,10052,10061,10066,10067,10069*0.1,10070*0.1,10071*0.1,10076,10077,10078,10079,10089,10091,10098,10102,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10145,10146,10147,10148,10149,10151,10163,10164,10165,10167*5,10169,10170,10172,10175,10176,10177,10179,10180</t>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10024,10045,10047,10054,10061,10066,10069*0.1,10070*0.1,10071*0.1,10076,10077,10078,10079,10080,10089,10090*0.5,10103,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127*0.1,10128*0.1,10129,10131,10132,10133,10134,10135,10138,10139,10140,10141,10142,10143,10145,10146,10147,10148,10152,10154,10167*4,10169,10170,10172,10176,10179,10180,10309</t>
+  </si>
+  <si>
+    <t>10007,10012,10014,10022,10023,10069*0.1,10070*0.1,10071*0.1,10072,10079,10080,10089,10095,10096,10099,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10131,10132,10133,10134,10135,10136,10137,10138,10139,10140,10141,10142,10143,10144,10145,10146,10147,10148,10149,10151,10152,10154,10167*3,10169,10170,10171,10172,10176,10180,10311,10463</t>
+  </si>
+  <si>
+    <t>10007,10008,10012,10014,10022,10023,10069*0.1,10070*0.1,10071*0.1,10079,10080,10089,10096,10097,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10130,10131,10132,10133,10134,10135,10138,10139,10142,10143,10145,10146,10147,10148,10150,10149,10151,10154,10155*3,10156,10157*50,10160,10167*2,10169,10171,10172,10176,10180,10182,10214,10311</t>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069*0.1,10070*0.1,10071*0.1,10080,10089,10097,10155*3,10156,10157*200,10158,10159*0.01,10160,10161,10162*0.1,10163,10164,10165,10169,10171,10180,10181,10182,10183,10184*10,10185*10,10189,10201,10211,10212,10213,10214,10215,10216,10224,10225,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10309,10311</t>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069*0.1,10070*0.1,10071*0.1,10080,10081,10089,10155*3,10156,10157*9999,10158,10159*0.05,10160,10161,10162*0.1,10085,10163,10164,10165,10169,10171,10180,10181,10182,10183,10186*5,10187,10188,10189,10201,10202*10,10211*5,10212*5,10214,10215,10216,10224,10225,10227,10253*0.1,10257*0.1,10309,10311</t>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069*0.1,10070*0.1,10071*0.1,10080,10081,10089,10158,10159*0.1,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10182,10183,10187,10188,10189,10194*5,10198*10000,10199*10000,10200*10000,10201,10203*99999,10211,10212,10213,10214,10215,10216,10224,10225,10226,10227,10254*0.1,10258*10000,10309,10410,10411,10412,10468*3</t>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069*0.1,10070*0.1,10071*0.1,10080,10081,10089,10161,10162*0.1,10085,10086,10163,10164,10165,10180,10181,10183,10187,10188,10189,10190*10,10194*10,10198*10000,10199*10000,10200*10000,10201,10203*99999,10205*99999,10211,10212,10213,10214,10215,10216,10217,10218*2,10219*3,10224,10225,10226*3,10227,10258*10000,10410,10411,10412,10259*999999,10468*3</t>
+  </si>
+  <si>
+    <t>10007,10008,10022,10023,10069*0.1,10070*0.1,10071*0.1,10080,10081,10089,10091,10085,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190*10,10191*99999,10194*5,10201,10205*99999,10206*99999,10211,10212,10213,10214,10215,10216,10217*2,10218*3,10219*5,10220*5,10221*5,10223*10,10224,10225,10226*5,10230*9999999,10259*999999,10309,10410,10411,10412,10468*3,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10008,10069*0.1,10070*0.1,10071*0.1,10081,10083,10090*0.5,10086,10163,10164,10165,10180,10181,10183,10188,10189,10190*10,10191*99999,10192*99999,10194*3,10201,10206*99999,10215,10216,10217,10218*2,10219*3,10220*10,10221*9999999,10223*99999,10224,10226*10,10231*999999,10233*999999,10237*100,10238*100,10239*10,10247,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10468*3,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10008,10069*0.1,10070*0.1,10071*0.1,10081,10083,10085,10086,10189,10190,10191*99999,10195*1000,10196*4000,10197*1000,10206*99999,10220*15,10221*999999,10222*999999,10223*99999,10230*999999,10237*999999,10238*999999,10239*999999,10247,10249*999999,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10081,10083,10085*3,10086,10090*0.5,10189,10191,10192*99999,10195*1000,10196*4000,10197*1000,10207*99999,10206,10220*50,10221*999999,10222*999999,10223*99999,10231*999999,10233*999999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10268*2,10269,10270,10271,10410,10411,10412,10463,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10081,10083,10085*5,10086,10189,10192*99999,10195*1000,10196*4000,10197*1000,10206*99999,10222*99999,10223*99999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10273,10274,10275,10276,10430,10431,10432,10433,10434,10435,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10081,10083,10085*10,10086,10189,10195*1000,10196*2000,10197*5000,10206*99999,10228*999999,10240,10241,10242,10243,10244,10245,10246,10249*999999,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10264*9999999,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10410,10411,10430,10431,10432,10433,10434,10435,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10081,10083,10085*50,10086,10189,10197*99999,10206*99999,10229*999999,10249*999999,10253,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10266,10273,10274,10275,10276,10410,10411,10430,10431,10432,10433,10434,10435,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10086,10087,10088*10,10189,10235*999999,10252,10254*0.1,10266,10268,10269,10270,10271,10273,10274,10275,10276,10281,10282*0.001,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10463,10469*2,10470*2,10471*2,10472*2,10473,10474</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10086,10087,10189,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10086,10087,10254,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10288,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10086,10087,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10469*2,10470*2,10471*2,10472*2,10473</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10254*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10288,10289*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10322,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10321,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.01,10286,10287,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10286,10287,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*10,10287*50,10289*0.1,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286*500,10287*100,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.01,10292,10293,10291*0.01,10308,10310,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10292,10293,10291*0.01,10308,10316*3,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10308,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*0.1,10280,10281,10290*0.1,10292,10293,10291*0.1,10307*999,10310,10312,10316*15,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*0.1,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10461*0.1,10462*0.1</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10292,10293,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290*0.1,10292,10293,10291,10310,10312,10313,10314,10316,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*5,10290,10291,10310,10312,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*3</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*9,10290,10291,10310,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*15,10290,10291*5,10310,10313,10314,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*5</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*50,10290,10291*5,10310,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*5</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290,10291*5,10294,10313,10314,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*50,10290*3,10294,10313,10314,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*100,10290*5,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290*5,10291*10,10294,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*50,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5,10280*5,10281*500,10290,10291*999,10294,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*559,10294*3,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290,10291*992,10294*3,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*500,10290*3,10291*55599,10294*3,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*10,10280*10,10281*100,10290*3,10291*999999,10294*5,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*100,10290*3,10294*5,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*500,10280*500,10281*1000,10290*5,10294*5,10313,10315,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*5000,10280*5000,10281*5000,10290*100,10294*10,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*50000,10280*50000,10281*5000,10290*1000,10294*50,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*99999,10280*99999,10281*9999,10290*100000,10294*500,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279*99999999,10280*99999999,10281*999999,10290*100000,10294*52554,10313,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*9999999,10290*99999,10294*99999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281*999999999,10290*99999,10294*999999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999,10294*9999999,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459</t>
+  </si>
+  <si>
+    <t>10069*0.1,10070*0.1,10071*0.1,10273,10274,10275,10276,10277,10278,10279,10280,10281,10290*99999999</t>
+  </si>
+  <si>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10083,10085*500,10086,10087,10189,10207*99999,10234*999999,10250*999999,10251*999999,10253*0.1,10266,10268*2,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288,10410,10411,10430,10431,10432,10433,10434,10435,10468*3,10469*2,10470*2,10471*2,10472*2,10473,10474*9,10475*3,10476*3,10477*3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10290*0.1,10291*0.1,10308,10310,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10461*0.1,10462*0.1</t>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10083,10085*9999,10086,10087,10088,10189,10210*99999,10252,10257*0.1,10266,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430,10431,10432,10433,10434,10435,10468*3,10469*2,10470*2,10471*2,10472*2,10473,10474*99,10475*3,10476*3,10477*3,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10290*0.1,10292,10293,10291*0.1,10308,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10461*0.1,10462*0.1</t>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10085*9999,10086,10087,10088*10,10189,10210*99999,10252,10256*0.1,10266,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10468*3,10469*2,10470*2,10471*2,10472*2,10473,10474,10475*3,10476*3,10477*3,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10273,10274,10275,10276,10277,10278,10279,10280,10281*3,10290*0.1,10291*0.1,10310,10312,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10461*0.1,10462*0.1</t>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10086,10087,10088,10189,10236*99999999,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10288,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10469*2,10470*2,10471*2,10472*2,10473,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.1,10290*0.01,10292,10293,10291*0.01,10308,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10461*0.1,10462*0.1</t>
+    <t>10007,10069*0.1,10070*0.1,10071*0.1,10086,10087,10189,10253*0.1,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10469*2,10470*2,10471*2,10472*2,10473,10474*99,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10069,10070,10071,10086,10087,10088*10,10189,10235*999999,10252,10254*0.1,10266,10268,10269,10270,10271,10273,10274,10275,10276,10281,10282*0.001,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10463</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10086,10087,10256,10268,10269,10270,10271,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10469*2,10470*2,10471*2,10472*2,10473,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10012,10014,10022,10023,10069,10070,10071,10072,10079,10080,10089,10095,10096,10099,10104,10105,10106,10107,10108,10109,10112,10113,10114,10115,10116*3,10117,10118,10119,10120,10121,10122,10123,10124,10125*0.1,10126*0.1,10127,10128,10129,10131,10132,10133,10134,10135,10136,10137,10138,10139,10140,10141,10142,10143,10144,10145,10146,10147,10148,10149,10151,10152,10154,10167*3,10169,10170,10171,10172,10176,10180,10311,10463</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10469*2,10470*2,10471*2,10472*2,10473,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10069,10070,10071,10081,10083,10085*3,10086,10090*0.5,10189,10191,10192*99999,10195*1000,10196*4000,10197*1000,10207*99999,10206,10220*50,10221*50,10223*99999,10231*999999,10233*999999,10240,10241,10242,10243,10244,10245,10246,10247,10249*999999,10260*999999,10261*999999,10262*999999,10263*999999,10267*99999,10268*2,10269,10270,10271,10410,10411,10412,10463</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10469*2,10470*2,10471*2,10472*2,10473,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10007,10069,10070,10071,10086,10087,10189,10253*0.1,10268,10269,10270,10271,10272,10273,10274,10275,10276,10281,10282*0.001,10284,10285,10410,10411,10413,10414,10415,10416,10417,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10255*0.1,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10086,10087,10254,10272,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10284,10285,10288,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10256*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322*0.1,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10086,10087,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10086,10087,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10283,10288,10289*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10322*0.1,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10463,10464,10465*0.5,10466*0.2,10467*0.08</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10087,10253*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.05,10281,10282*0.001,10283,10289*0.01,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.1,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08,10478*2,10479*2,10480*2,10481*2,10482*2,10483*2,10484*2,10485*2,10486*2,10487*2,10488*2,10489*2,10490*2,10491*2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10087,10254*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10288,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295*66,10296*66,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10492*999999999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10069,10070,10071,10087,10255*0.1,10273,10274,10275,10276,10277,10278,10281,10282*0.001,10283,10289*0.01,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10256*0.1,10268,10269,10270,10271,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322*0.1,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253*0.1,10254*0.1,10255*0.1,10256*0.1,10257*0.1,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10283,10288,10289*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10322*0.1,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10463,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10283,10288,10289*0.1,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10410,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10288,10289*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10322,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.1,10290*0.01,10292,10293,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10318,10319,10320,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10317,10318,10319,10320,10321,10322*0.1,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.01,10286,10287,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.1,10281,10282*0.001,10286,10287,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10087,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10308,10317,10318,10319,10320,10322,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069,10070,10071,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.001,10286,10287,10288,10290*0.01,10291*0.01,10295,10296,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307,10317,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430*0.1,10431*0.1,10432*0.1,10433*0.1,10434*0.1,10435*0.1,10436*0.1,10437*0.1,10438*0.1,10439*0.1,10440*0.1,10441*0.1,10442*0.1,10443*0.1,10444*0.1,10445*0.1,10446*0.1,10447*0.1,10448*0.1,10449*0.1,10450*0.1,10451*0.1,10452*0.1,10453*0.1,10454*0.1,10455*0.1,10456*0.1,10457*0.1,10458*0.1,10459*0.1,10461*0.1,10462*0.1,10464,10465*0.5,10466*0.2,10467*0.08</t>
+    <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307*999,10316,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10493*99999999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2428,8 +2366,8 @@
   <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2441,13 +2379,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2498,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,10 +2444,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2525,7 +2463,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>591</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>592</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2557,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>610</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,10 +2503,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>593</v>
+        <v>548</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2584,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,7 +2530,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,10 +2538,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2611,3903 +2549,3903 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>123</v>
+        <v>554</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>547</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>542</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>544</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>617</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>634</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>629</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>630</v>
+        <v>572</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>631</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>635</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>633</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>565</v>
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>557</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>124</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C7A4E-338E-4174-9AD9-207E866C237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36215F1F-240A-4604-80CA-12E9FDC8B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,21 +1620,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361</t>
-  </si>
-  <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1069,1070</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1647,17 +1632,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367</t>
-  </si>
-  <si>
-    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10368*99999,10369,10370,10371,10372,10373,10374,10375,10376,10367,10377,10380*0.01,10381*0.01,10382*0.01,10383*0.01,10384*0.01,10385*0.01,10386*0.001,10387*0.001,10388*0.001,10389*0.001,10390*0.001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1993,6 +1967,31 @@
   </si>
   <si>
     <t>10069*0.1,10070*0.1,10071*0.1,10253,10254,10255,10256,10257,10273,10274,10275,10276,10277,10278,10279*0.01,10281,10282*0.01,10286,10287,10288,10289*0.1,10290*0.01,10292,10293,10297,10298,10299,10300,10301,10302,10303,10304,10305,10306,10307*999,10316,10318,10319,10320,10321,10413,10414,10415,10416,10417,10418,10419,10420,10421,10422,10423,10424*0.1,10425*0.01,10430,10431,10432,10433,10434,10436,10437,10438,10439,10440,10441,10442,10443,10444,10445,10446,10447,10448,10449,10450,10451,10452,10453,10454,10455,10456,10457,10459,10460*2,10493*99999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367,10362</t>
+  </si>
+  <si>
+    <t>10347*999999,10348,10352,10353,10354,10355,10356,10357,10358,10359*0.01,10363*0.01,10364*0.1,10366*0.01,10365,10369,10370,10371,10372,10373,10374,10375,10376,10367,10362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361,10362</t>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361,10362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10361,10362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361,10362</t>
+  </si>
+  <si>
+    <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361,10362</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2366,8 +2365,8 @@
   <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="2" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>512</v>
@@ -2455,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2495,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>519</v>
@@ -2514,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>520</v>
@@ -2549,15 +2548,15 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>521</v>
@@ -2568,18 +2567,18 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2587,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,7 +2594,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,7 +2602,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2611,7 +2610,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>520</v>
@@ -2622,15 +2621,15 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,7 +2637,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2645,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2653,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2662,7 +2661,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>518</v>
@@ -2673,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,15 +2680,15 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2696,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,7 +2704,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,7 +2712,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,7 +2720,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,7 +2728,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2737,7 +2736,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2744,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>517</v>
@@ -2756,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2763,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2772,7 +2771,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,7 +2787,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,7 +2795,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,7 +2803,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,7 +2819,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2828,7 +2827,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>516</v>
@@ -2839,7 +2838,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2847,7 +2846,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2855,7 +2854,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,7 +2862,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2871,7 +2870,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2879,7 +2878,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,7 +2886,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2895,7 +2894,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2903,7 +2902,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,7 +2910,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>513</v>
@@ -2922,7 +2921,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,7 +2929,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2938,7 +2937,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,7 +2945,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2954,7 +2953,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,7 +2961,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2970,7 +2969,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2978,7 +2977,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2986,7 +2985,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,7 +2993,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>514</v>
@@ -3005,7 +3004,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3013,7 +3012,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,7 +3020,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3029,7 +3028,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3037,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3044,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3052,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,7 +3060,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3069,7 +3068,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3077,7 +3076,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3092,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3100,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3109,7 +3108,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3117,7 +3116,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3124,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3132,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,7 +3140,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,7 +3148,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,7 +3156,7 @@
         <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>515</v>
@@ -3168,7 +3167,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,7 +3175,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,7 +3183,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3192,7 +3191,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3200,7 +3199,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3208,7 +3207,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,7 +3215,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3223,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,7 +3231,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4039,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4047,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>523</v>
+        <v>632</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4056,7 +4055,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>522</v>
+        <v>633</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,7 +4063,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4071,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4080,7 +4079,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4088,7 +4087,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4096,7 +4095,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,7 +4103,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4112,7 +4111,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4120,7 +4119,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,7 +4127,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4136,7 +4135,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4144,7 +4143,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4152,7 +4151,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,7 +4159,7 @@
         <v>219</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,7 +4167,7 @@
         <v>220</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,7 +4175,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4184,7 +4183,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,7 +4191,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4199,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4208,7 +4207,7 @@
         <v>225</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4215,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4224,7 +4223,7 @@
         <v>227</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4232,7 +4231,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4240,7 +4239,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4247,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4255,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,7 +4263,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,7 +4271,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4280,7 +4279,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4288,7 +4287,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,7 +4295,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,7 +4303,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4312,7 +4311,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4320,7 +4319,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4328,7 +4327,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4336,7 +4335,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,7 +4343,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4352,7 +4351,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4360,7 +4359,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4367,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4376,7 +4375,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4383,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4391,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4400,7 +4399,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,7 +4407,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4416,7 +4415,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,7 +4423,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4431,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,7 +4439,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4448,7 +4447,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4456,7 +4455,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4463,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,7 +4471,7 @@
         <v>258</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4480,7 +4479,7 @@
         <v>259</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4488,7 +4487,7 @@
         <v>260</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4496,7 +4495,7 @@
         <v>261</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4504,7 +4503,7 @@
         <v>262</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4512,7 +4511,7 @@
         <v>263</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,7 +4519,7 @@
         <v>264</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4528,7 +4527,7 @@
         <v>265</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4536,7 +4535,7 @@
         <v>266</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4544,7 +4543,7 @@
         <v>267</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4552,7 +4551,7 @@
         <v>268</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4560,7 +4559,7 @@
         <v>269</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,7 +4567,7 @@
         <v>270</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,7 +4575,7 @@
         <v>271</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,7 +4583,7 @@
         <v>272</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4592,7 +4591,7 @@
         <v>273</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,7 +4599,7 @@
         <v>274</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,7 +4607,7 @@
         <v>275</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,7 +4615,7 @@
         <v>276</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4623,7 @@
         <v>277</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4631,7 @@
         <v>278</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,7 +4639,7 @@
         <v>279</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4648,7 +4647,7 @@
         <v>280</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,7 +4655,7 @@
         <v>281</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,7 +4663,7 @@
         <v>282</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,7 +4671,7 @@
         <v>283</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4680,7 +4679,7 @@
         <v>284</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4688,7 +4687,7 @@
         <v>285</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4696,7 +4695,7 @@
         <v>286</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4703,7 @@
         <v>287</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>522</v>
+        <v>631</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4712,7 +4711,7 @@
         <v>288</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>524</v>
+        <v>635</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,7 +4719,7 @@
         <v>289</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>524</v>
+        <v>635</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,7 +4727,7 @@
         <v>290</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,7 +4735,7 @@
         <v>291</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4744,7 +4743,7 @@
         <v>292</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4752,7 +4751,7 @@
         <v>293</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4760,7 +4759,7 @@
         <v>294</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4768,7 +4767,7 @@
         <v>295</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4776,7 +4775,7 @@
         <v>296</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4784,7 +4783,7 @@
         <v>297</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,7 +4791,7 @@
         <v>298</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4800,7 +4799,7 @@
         <v>299</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,7 +4807,7 @@
         <v>300</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4816,7 +4815,7 @@
         <v>301</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4824,7 +4823,7 @@
         <v>302</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4832,7 +4831,7 @@
         <v>303</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>525</v>
+        <v>634</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,7 +4839,7 @@
         <v>304</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4848,7 +4847,7 @@
         <v>305</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>530</v>
+        <v>630</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,7 +4855,7 @@
         <v>306</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>530</v>
+        <v>630</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,7 +4863,7 @@
         <v>307</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,7 +4871,7 @@
         <v>308</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,7 +4879,7 @@
         <v>309</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,7 +4887,7 @@
         <v>310</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4896,7 +4895,7 @@
         <v>311</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4904,7 +4903,7 @@
         <v>312</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4912,7 +4911,7 @@
         <v>313</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4920,7 +4919,7 @@
         <v>314</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4928,7 +4927,7 @@
         <v>315</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4936,7 +4935,7 @@
         <v>316</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,7 +4943,7 @@
         <v>317</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4952,7 +4951,7 @@
         <v>318</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4960,7 +4959,7 @@
         <v>319</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4968,7 +4967,7 @@
         <v>320</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4976,7 +4975,7 @@
         <v>321</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,7 +4983,7 @@
         <v>322</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,7 +4991,7 @@
         <v>323</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5000,7 +4999,7 @@
         <v>324</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5007,7 @@
         <v>325</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5016,7 +5015,7 @@
         <v>326</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,7 +5023,7 @@
         <v>327</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5032,7 +5031,7 @@
         <v>328</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5040,7 +5039,7 @@
         <v>329</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5047,7 @@
         <v>330</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,7 +5055,7 @@
         <v>331</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5064,7 +5063,7 @@
         <v>332</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5071,7 @@
         <v>333</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5080,7 +5079,7 @@
         <v>334</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,7 +5087,7 @@
         <v>335</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5096,7 +5095,7 @@
         <v>336</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5103,7 @@
         <v>337</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5112,7 +5111,7 @@
         <v>338</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5120,7 +5119,7 @@
         <v>339</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5128,7 +5127,7 @@
         <v>340</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5136,7 +5135,7 @@
         <v>341</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5144,7 +5143,7 @@
         <v>342</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,7 +5151,7 @@
         <v>343</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,7 +5159,7 @@
         <v>344</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5168,7 +5167,7 @@
         <v>345</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5175,7 @@
         <v>346</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5183,7 @@
         <v>347</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5192,7 +5191,7 @@
         <v>348</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5200,7 +5199,7 @@
         <v>349</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5207,7 @@
         <v>350</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5216,7 +5215,7 @@
         <v>351</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5224,7 +5223,7 @@
         <v>352</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5231,7 @@
         <v>353</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5240,7 +5239,7 @@
         <v>354</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,7 +5247,7 @@
         <v>355</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5256,7 +5255,7 @@
         <v>356</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5264,7 +5263,7 @@
         <v>357</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5272,7 +5271,7 @@
         <v>358</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5280,7 +5279,7 @@
         <v>359</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5288,7 +5287,7 @@
         <v>360</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5296,7 +5295,7 @@
         <v>361</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5304,7 +5303,7 @@
         <v>362</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5312,7 +5311,7 @@
         <v>363</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,7 +5319,7 @@
         <v>364</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,7 +5327,7 @@
         <v>365</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,7 +5335,7 @@
         <v>366</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,7 +5343,7 @@
         <v>367</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5352,7 +5351,7 @@
         <v>368</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5360,7 +5359,7 @@
         <v>369</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5368,7 +5367,7 @@
         <v>370</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5376,7 +5375,7 @@
         <v>371</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5384,7 +5383,7 @@
         <v>372</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5391,7 @@
         <v>373</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5400,7 +5399,7 @@
         <v>374</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5408,7 +5407,7 @@
         <v>375</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5416,7 +5415,7 @@
         <v>376</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5424,7 +5423,7 @@
         <v>377</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5432,7 +5431,7 @@
         <v>378</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,7 +5439,7 @@
         <v>379</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5448,7 +5447,7 @@
         <v>380</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5455,7 @@
         <v>381</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5464,7 +5463,7 @@
         <v>382</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5472,7 +5471,7 @@
         <v>383</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5480,7 +5479,7 @@
         <v>384</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5488,7 +5487,7 @@
         <v>385</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5496,7 +5495,7 @@
         <v>386</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5504,7 +5503,7 @@
         <v>387</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5512,7 +5511,7 @@
         <v>388</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5519,7 @@
         <v>389</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5528,7 +5527,7 @@
         <v>390</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5536,7 +5535,7 @@
         <v>391</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5544,7 +5543,7 @@
         <v>392</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5552,7 +5551,7 @@
         <v>393</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5560,7 +5559,7 @@
         <v>394</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,7 +5567,7 @@
         <v>395</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,7 +5575,7 @@
         <v>396</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5584,7 +5583,7 @@
         <v>397</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5592,7 +5591,7 @@
         <v>398</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5600,7 +5599,7 @@
         <v>399</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5608,7 +5607,7 @@
         <v>400</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5615,7 @@
         <v>401</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5624,7 +5623,7 @@
         <v>402</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5632,7 +5631,7 @@
         <v>403</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5640,7 +5639,7 @@
         <v>404</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5647,7 @@
         <v>405</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5656,7 +5655,7 @@
         <v>406</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5664,7 +5663,7 @@
         <v>407</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,7 +5671,7 @@
         <v>408</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5679,7 @@
         <v>409</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5688,7 +5687,7 @@
         <v>410</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5696,7 +5695,7 @@
         <v>411</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,7 +5703,7 @@
         <v>412</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,7 +5711,7 @@
         <v>413</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,7 +5719,7 @@
         <v>414</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5728,7 +5727,7 @@
         <v>415</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5736,7 +5735,7 @@
         <v>416</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5744,7 +5743,7 @@
         <v>417</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,7 +5751,7 @@
         <v>418</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,7 +5759,7 @@
         <v>419</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,7 +5767,7 @@
         <v>420</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,7 +5775,7 @@
         <v>421</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,7 +5783,7 @@
         <v>422</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5792,7 +5791,7 @@
         <v>423</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,7 +5799,7 @@
         <v>424</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5807,7 @@
         <v>425</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,7 +5815,7 @@
         <v>426</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5823,7 @@
         <v>427</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,7 +5831,7 @@
         <v>428</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,7 +5839,7 @@
         <v>429</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5848,7 +5847,7 @@
         <v>430</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,7 +5855,7 @@
         <v>431</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5863,7 @@
         <v>432</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5871,7 @@
         <v>433</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5880,7 +5879,7 @@
         <v>434</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5887,7 @@
         <v>435</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,7 +5895,7 @@
         <v>436</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,7 +5903,7 @@
         <v>437</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5911,7 @@
         <v>438</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,7 +5919,7 @@
         <v>439</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5928,7 +5927,7 @@
         <v>440</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,7 +5935,7 @@
         <v>441</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,7 +5943,7 @@
         <v>442</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,7 +5951,7 @@
         <v>443</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,7 +5959,7 @@
         <v>444</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,7 +5967,7 @@
         <v>445</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,7 +5975,7 @@
         <v>446</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,7 +5983,7 @@
         <v>447</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5992,7 +5991,7 @@
         <v>448</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6000,7 +5999,7 @@
         <v>449</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,7 +6007,7 @@
         <v>450</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6016,7 +6015,7 @@
         <v>451</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6023,7 @@
         <v>452</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,7 +6031,7 @@
         <v>453</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,7 +6039,7 @@
         <v>454</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6047,7 @@
         <v>455</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,7 +6055,7 @@
         <v>456</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,7 +6063,7 @@
         <v>457</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,7 +6071,7 @@
         <v>458</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6080,7 +6079,7 @@
         <v>459</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,7 +6087,7 @@
         <v>460</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6096,7 +6095,7 @@
         <v>461</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,7 +6103,7 @@
         <v>462</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6112,7 +6111,7 @@
         <v>463</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,7 +6119,7 @@
         <v>464</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6128,7 +6127,7 @@
         <v>465</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6136,7 +6135,7 @@
         <v>466</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,7 +6143,7 @@
         <v>467</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6152,7 +6151,7 @@
         <v>468</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6159,7 @@
         <v>469</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,7 +6167,7 @@
         <v>470</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6175,7 @@
         <v>471</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,7 +6183,7 @@
         <v>472</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6192,7 +6191,7 @@
         <v>473</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6200,7 +6199,7 @@
         <v>474</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,7 +6207,7 @@
         <v>475</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6216,7 +6215,7 @@
         <v>476</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6224,7 +6223,7 @@
         <v>477</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,7 +6231,7 @@
         <v>478</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6240,7 +6239,7 @@
         <v>479</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,7 +6247,7 @@
         <v>480</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,7 +6255,7 @@
         <v>481</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6264,7 +6263,7 @@
         <v>482</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6272,7 +6271,7 @@
         <v>483</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6280,7 +6279,7 @@
         <v>484</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6287,7 @@
         <v>485</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6295,7 @@
         <v>486</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,7 +6303,7 @@
         <v>487</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6312,7 +6311,7 @@
         <v>488</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6320,7 +6319,7 @@
         <v>489</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,7 +6327,7 @@
         <v>490</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,7 +6335,7 @@
         <v>491</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6343,7 @@
         <v>492</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6352,7 +6351,7 @@
         <v>493</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,7 +6359,7 @@
         <v>494</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,7 +6367,7 @@
         <v>495</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,7 +6375,7 @@
         <v>496</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,7 +6383,7 @@
         <v>497</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,7 +6391,7 @@
         <v>498</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,7 +6399,7 @@
         <v>499</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,7 +6407,7 @@
         <v>500</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,7 +6415,7 @@
         <v>501</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,7 +6423,7 @@
         <v>502</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,7 +6431,7 @@
         <v>503</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -6440,7 +6439,7 @@
         <v>504</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36215F1F-240A-4604-80CA-12E9FDC8B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D11CFD-6B64-4982-B4A1-4B81FE6B9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="641">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001*110,10002*100,10110,10111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10003,10007,10012,10014,10015,10016,10017,10018,10020,10019,10026,10027,10053,10059,10060,10063,10065,10069,10072,10089,10140,10141,10142,10150,10163,10164,10165,10166</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1992,6 +1988,29 @@
   </si>
   <si>
     <t>10336,10337,10338,10339,10340,10341,10342,10343,10344,10345,10346,10349*0.01,10350*0.02,10351*0.1,10348,10352,10353,10361,10362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10324,10325,10326,10327,10328,10329,10330,10331,10332,10333,10334*0.01,10335*0.01,10336</t>
+  </si>
+  <si>
+    <t>10324,10325,10326,10327,10328,10329,10330,10331,10332,10333,10334*0.01,10335*0.01,10336</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001*110,10002*100,10110,10111,10494*999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10324,10325,10326,10327,10328,10329,10330,10331,10332,10333,10334*0.01,10335*0.01,10336,10495*0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10324,10325,10326,10327,10328,10329,10330,10331,10332,10333,10334*0.01,10335*0.01,10336</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10324,10325,10326,10327,10328,10329,10330,10331,10332,10333,10334*0.01,10335*0.01,10496*0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2365,8 +2384,8 @@
   <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2378,13 +2397,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,10 +2462,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2473,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2502,10 +2521,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,7 +2532,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2521,7 +2540,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2529,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2537,10 +2556,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,18 +2567,18 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,18 +2586,18 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2586,7 +2605,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2602,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,10 +2629,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,15 +2640,15 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,7 +2664,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,7 +2672,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,10 +2680,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,15 +2699,15 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2723,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2712,7 +2731,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2739,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2728,7 +2747,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,7 +2755,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,10 +2763,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,7 +2774,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2763,7 +2782,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,7 +2790,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2798,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2787,7 +2806,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2795,7 +2814,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2811,7 +2830,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2819,7 +2838,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2827,10 +2846,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,7 +2857,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,7 +2865,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2854,7 +2873,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2862,7 +2881,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2870,7 +2889,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2886,7 +2905,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,7 +2913,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,7 +2921,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2910,10 +2929,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,7 +2940,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2929,7 +2948,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,7 +2956,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,7 +2964,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2953,7 +2972,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2961,7 +2980,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2969,7 +2988,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2977,7 +2996,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,7 +3004,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2993,10 +3012,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,7 +3023,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,7 +3031,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,7 +3039,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,7 +3055,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,7 +3063,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,7 +3071,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3060,7 +3079,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3076,7 +3095,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,7 +3103,7 @@
         <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,7 +3111,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3100,7 +3119,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3127,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,7 +3135,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3143,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,7 +3151,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,7 +3159,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3167,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,10 +3175,10 @@
         <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3167,7 +3186,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,7 +3194,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3183,7 +3202,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3210,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3199,7 +3218,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,7 +3226,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3215,7 +3234,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,7 +3250,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3239,7 +3258,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3247,7 +3266,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,7 +3274,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3263,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,7 +3290,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3298,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>506</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3287,7 +3306,7 @@
         <v>103</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3314,7 @@
         <v>104</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>506</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3303,7 +3322,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,7 +3330,7 @@
         <v>106</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>506</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,7 +3338,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>506</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3327,7 +3346,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>506</v>
+        <v>636</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,7 +3354,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>506</v>
+        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,7 +3370,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3359,7 +3378,7 @@
         <v>112</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3386,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>506</v>
+        <v>638</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3375,3076 +3394,3076 @@
         <v>114</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>506</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>506</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>506</v>
+        <v>639</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>506</v>
+        <v>638</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>506</v>
+        <v>635</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D11CFD-6B64-4982-B4A1-4B81FE6B9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A3927-926A-491D-9687-8C564DE15027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="628">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1565,58 +1565,6 @@
   </si>
   <si>
     <t>event</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>talent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的天赋池</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1056</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1052,1054</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1053,1055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1058</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1051,1059</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1050,1059</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1049,1059</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1060</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1061</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1057,1060,1062</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1069,1070</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2381,51 +2329,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C504"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="3"/>
-    <col min="2" max="2" width="50.44140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="25.44140625" style="3"/>
+    <col min="1" max="1" width="25.4140625" style="3"/>
+    <col min="2" max="2" width="50.4140625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="25.4140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2433,7 +2375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2383,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2449,811 +2391,775 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -3261,7 +3167,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -3269,7 +3175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -3277,7 +3183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -3285,7 +3191,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -3293,15 +3199,15 @@
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -3309,15 +3215,15 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -3325,3143 +3231,3143 @@
         <v>505</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>504</v>
       </c>

--- a/data/age.xlsx
+++ b/data/age.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A147729B-8D69-4FE7-B844-60C5CDF94BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474D0F6-F4DE-4EAA-AEDE-65351A58AE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6453" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8480" uniqueCount="1171">
   <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3295,6 +3295,505 @@
   </si>
   <si>
     <t>10659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10661</t>
+  </si>
+  <si>
+    <t>10662</t>
+  </si>
+  <si>
+    <t>10663</t>
+  </si>
+  <si>
+    <t>10664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10664*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10665*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10666*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10667*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10620*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10668*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10669*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10671*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10671*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10671*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10672*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10672*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10672*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10677*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10678*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10678*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10677*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10677*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10678*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10679</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10689</t>
+  </si>
+  <si>
+    <t>10690</t>
+  </si>
+  <si>
+    <t>10691</t>
+  </si>
+  <si>
+    <t>10692</t>
+  </si>
+  <si>
+    <t>10693</t>
+  </si>
+  <si>
+    <t>10694</t>
+  </si>
+  <si>
+    <t>10714*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10713*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10712*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10711*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10710*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10709*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10708*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10707*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10706*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10705*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10704*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10703*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10702*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10700*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10699*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10698*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10697*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10696*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10695*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10716*9999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10718</t>
+  </si>
+  <si>
+    <t>10719</t>
+  </si>
+  <si>
+    <t>10720</t>
+  </si>
+  <si>
+    <t>10721</t>
+  </si>
+  <si>
+    <t>10722</t>
+  </si>
+  <si>
+    <t>10723</t>
+  </si>
+  <si>
+    <t>10724</t>
+  </si>
+  <si>
+    <t>10725</t>
+  </si>
+  <si>
+    <t>10726</t>
+  </si>
+  <si>
+    <t>10727</t>
+  </si>
+  <si>
+    <t>10728</t>
+  </si>
+  <si>
+    <t>10729</t>
+  </si>
+  <si>
+    <t>10730</t>
+  </si>
+  <si>
+    <t>10731</t>
+  </si>
+  <si>
+    <t>10732</t>
+  </si>
+  <si>
+    <t>10733</t>
+  </si>
+  <si>
+    <t>10734</t>
+  </si>
+  <si>
+    <t>10735</t>
+  </si>
+  <si>
+    <t>10736*99999999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10737*99999999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10742</t>
+  </si>
+  <si>
+    <t>10743</t>
+  </si>
+  <si>
+    <t>10744</t>
+  </si>
+  <si>
+    <t>10745</t>
+  </si>
+  <si>
+    <t>10746</t>
+  </si>
+  <si>
+    <t>10747</t>
+  </si>
+  <si>
+    <t>10748</t>
+  </si>
+  <si>
+    <t>10749</t>
+  </si>
+  <si>
+    <t>10750</t>
+  </si>
+  <si>
+    <t>10751</t>
+  </si>
+  <si>
+    <t>10752</t>
+  </si>
+  <si>
+    <t>10753</t>
+  </si>
+  <si>
+    <t>10754</t>
+  </si>
+  <si>
+    <t>10755</t>
+  </si>
+  <si>
+    <t>10756</t>
+  </si>
+  <si>
+    <t>10757</t>
+  </si>
+  <si>
+    <t>10758</t>
+  </si>
+  <si>
+    <t>10759</t>
+  </si>
+  <si>
+    <t>10760</t>
+  </si>
+  <si>
+    <t>10761</t>
+  </si>
+  <si>
+    <t>10762</t>
+  </si>
+  <si>
+    <t>10763</t>
+  </si>
+  <si>
+    <t>10764</t>
+  </si>
+  <si>
+    <t>10765</t>
+  </si>
+  <si>
+    <t>10766</t>
+  </si>
+  <si>
+    <t>10767</t>
+  </si>
+  <si>
+    <t>10768*0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10769*9999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10770*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10771*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10772*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10773*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10774*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10775*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10776*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10777*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10778*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10779*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10780*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10782*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10783*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10784*0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10781*0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3655,13 +4154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ES504"/>
+  <dimension ref="A1:FE504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AV76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CL67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ95" sqref="BJ95"/>
+      <selection pane="bottomRight" activeCell="CU86" sqref="CU86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7466,7 +7965,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="17" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -7711,7 +8210,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="18" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -7962,7 +8461,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -8216,7 +8715,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="20" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -8482,7 +8981,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>500</v>
       </c>
@@ -8667,7 +9166,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -8842,8 +9341,65 @@
       <c r="BF22" s="3" t="s">
         <v>929</v>
       </c>
+      <c r="BG22" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BH22" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BI22" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BJ22" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BK22" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BL22" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BM22" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BN22" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BO22" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BP22" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BQ22" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BR22" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BS22" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BT22" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BU22" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BV22" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BW22" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BX22" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BY22" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>502</v>
       </c>
@@ -9045,8 +9601,65 @@
       <c r="BO23" s="3" t="s">
         <v>929</v>
       </c>
+      <c r="BP23" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BQ23" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BR23" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BS23" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BT23" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BU23" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BV23" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BW23" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BX23" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BY23" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BZ23" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CA23" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CB23" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CC23" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="CD23" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="CE23" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CF23" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="CG23" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="CH23" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -9233,8 +9846,65 @@
       <c r="BJ24" s="3" t="s">
         <v>929</v>
       </c>
+      <c r="BK24" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BL24" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BM24" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BN24" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BO24" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BP24" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BQ24" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BR24" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BS24" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BT24" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BU24" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BV24" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BW24" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BX24" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BY24" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BZ24" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CA24" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="CB24" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="CC24" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -9436,8 +10106,65 @@
       <c r="BO25" s="3" t="s">
         <v>931</v>
       </c>
+      <c r="BP25" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BQ25" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BR25" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BS25" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BT25" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BU25" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BV25" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BW25" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BX25" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BY25" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BZ25" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CA25" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CB25" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CC25" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="CD25" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="CE25" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CF25" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="CG25" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="CH25" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -9603,8 +10330,65 @@
       <c r="BC26" s="3" t="s">
         <v>946</v>
       </c>
+      <c r="BD26" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BF26" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BG26" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BH26" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BI26" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BJ26" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BK26" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BL26" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BM26" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BN26" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BO26" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BP26" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BQ26" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BR26" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BS26" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BT26" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BU26" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BV26" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -9767,8 +10551,65 @@
       <c r="BB27" s="3" t="s">
         <v>950</v>
       </c>
+      <c r="BC27" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BD27" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BE27" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BF27" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BG27" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BH27" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BI27" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BJ27" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BK27" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BL27" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BM27" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BN27" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BO27" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BP27" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BQ27" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BR27" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BS27" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BT27" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BU27" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -9979,8 +10820,77 @@
       <c r="BR28" s="3" t="s">
         <v>950</v>
       </c>
+      <c r="BS28" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BT28" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BU28" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BV28" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BW28" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BX28" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BY28" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BZ28" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CA28" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CB28" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CC28" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CD28" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CE28" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CF28" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="CG28" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CH28" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CI28" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CJ28" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="CK28" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="CL28" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CM28" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="CN28" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="CO28" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="29" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>501</v>
       </c>
@@ -10248,8 +11158,83 @@
       <c r="CK29" s="3" t="s">
         <v>950</v>
       </c>
+      <c r="CL29" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CM29" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="CN29" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="CO29" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="CP29" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="CQ29" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="CR29" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CS29" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CT29" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CU29" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CV29" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CW29" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CX29" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CY29" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CZ29" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="DA29" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="DB29" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="DC29" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="DD29" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="DE29" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="DF29" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="DG29" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DH29" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="DI29" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="DJ29" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="30" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -10466,8 +11451,83 @@
       <c r="BT30" s="3" t="s">
         <v>948</v>
       </c>
+      <c r="BU30" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BV30" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BW30" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BX30" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="BY30" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="BZ30" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="CA30" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CB30" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CC30" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CD30" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CE30" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CF30" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CG30" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CH30" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CI30" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CJ30" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="CK30" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CL30" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CM30" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CN30" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="CO30" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="CP30" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CQ30" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="CR30" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="CS30" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="31" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:114" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -10720,8 +11780,89 @@
       <c r="CF31" s="3" t="s">
         <v>941</v>
       </c>
+      <c r="CG31" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="CH31" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="CI31" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="CJ31" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="CK31" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="CL31" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="CM31" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="CN31" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CO31" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CP31" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CQ31" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CR31" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CS31" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CT31" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CU31" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CV31" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CW31" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CX31" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="CY31" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CZ31" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="DA31" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="DB31" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="DC31" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="DD31" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DE31" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="DF31" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="DG31" s="3" t="s">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="32" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -10978,10 +12119,76 @@
         <v>951</v>
       </c>
       <c r="CH32" s="3" t="s">
-        <v>952</v>
+        <v>1044</v>
+      </c>
+      <c r="CI32" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="CJ32" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CK32" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CL32" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="CM32" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CN32" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CO32" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CP32" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CQ32" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="CR32" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CS32" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CT32" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CU32" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="CV32" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="CW32" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CX32" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CY32" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="CZ32" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="DA32" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DB32" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="DC32" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="DD32" s="3" t="s">
+        <v>1121</v>
       </c>
     </row>
-    <row r="33" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -11222,8 +12429,23 @@
       <c r="CB33" s="3" t="s">
         <v>958</v>
       </c>
+      <c r="CC33" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="CD33" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="CE33" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CF33" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CG33" s="3" t="s">
+        <v>1122</v>
+      </c>
     </row>
-    <row r="34" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -11530,8 +12752,14 @@
       <c r="CX34" s="3" t="s">
         <v>958</v>
       </c>
+      <c r="CY34" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CZ34" s="3" t="s">
+        <v>1123</v>
+      </c>
     </row>
-    <row r="35" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -11799,8 +13027,26 @@
       <c r="CK35" s="3" t="s">
         <v>958</v>
       </c>
+      <c r="CL35" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CM35" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="CN35" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="CO35" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="CP35" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="CQ35" s="3" t="s">
+        <v>1126</v>
+      </c>
     </row>
-    <row r="36" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>503</v>
       </c>
@@ -12098,8 +13344,26 @@
       <c r="CU36" s="3" t="s">
         <v>956</v>
       </c>
+      <c r="CV36" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CW36" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="CX36" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="CY36" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="CZ36" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="DA36" s="3" t="s">
+        <v>1126</v>
+      </c>
     </row>
-    <row r="37" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -12367,8 +13631,26 @@
       <c r="CK37" s="3" t="s">
         <v>1026</v>
       </c>
+      <c r="CL37" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CM37" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="CN37" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="CO37" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="CP37" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="CQ37" s="3" t="s">
+        <v>1126</v>
+      </c>
     </row>
-    <row r="38" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -12684,8 +13966,101 @@
       <c r="DA38" s="3" t="s">
         <v>1027</v>
       </c>
+      <c r="DB38" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="DC38" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="DD38" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="DE38" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DF38" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DG38" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DH38" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DI38" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DJ38" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DK38" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DL38" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DM38" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DN38" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DO38" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DP38" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DQ38" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DR38" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DS38" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="DT38" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="DU38" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="DV38" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="DW38" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="DX38" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="DY38" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="DZ38" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EA38" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EB38" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EC38" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="ED38" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EE38" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EF38" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="39" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -13019,8 +14394,98 @@
       <c r="DG39" s="3" t="s">
         <v>1028</v>
       </c>
+      <c r="DH39" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="DI39" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="DJ39" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DK39" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DL39" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DM39" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DN39" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DO39" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DP39" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DQ39" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DR39" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DS39" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DT39" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DU39" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DV39" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DW39" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DX39" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="DY39" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="DZ39" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EA39" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EB39" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EC39" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="ED39" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EE39" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EF39" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EG39" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EH39" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EI39" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EJ39" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EK39" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="40" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -13351,8 +14816,101 @@
       <c r="DF40" s="3" t="s">
         <v>1029</v>
       </c>
+      <c r="DG40" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="DH40" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DI40" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DJ40" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DK40" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DL40" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DM40" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DN40" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DO40" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DP40" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DQ40" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DR40" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DS40" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DT40" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DU40" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DV40" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DW40" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DX40" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="DY40" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="DZ40" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EA40" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EB40" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EC40" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="ED40" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EE40" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EF40" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EG40" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EH40" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EI40" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EJ40" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EK40" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="41" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -13725,8 +15283,101 @@
       <c r="DT41" s="3" t="s">
         <v>1030</v>
       </c>
+      <c r="DU41" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="DV41" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="DW41" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DX41" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DY41" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DZ41" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="EA41" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EB41" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EC41" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="ED41" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EE41" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="EF41" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EG41" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EH41" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EI41" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EJ41" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EK41" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EL41" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EM41" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EN41" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EO41" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EP41" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EQ41" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="ER41" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="ES41" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="ET41" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EU41" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EV41" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EW41" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EX41" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EY41" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="42" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -14105,8 +15756,104 @@
       <c r="DV42" s="3" t="s">
         <v>1031</v>
       </c>
+      <c r="DW42" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="DX42" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="DY42" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="DZ42" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="EA42" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="EB42" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="EC42" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="ED42" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EE42" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EF42" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="EG42" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EH42" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="EI42" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EJ42" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EK42" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EL42" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EM42" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EN42" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EO42" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EP42" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EQ42" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="ER42" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="ES42" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="ET42" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EU42" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EV42" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EW42" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EX42" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EY42" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EZ42" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="FA42" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="FB42" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="43" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -14494,8 +16241,104 @@
       <c r="DY43" s="3" t="s">
         <v>1026</v>
       </c>
+      <c r="DZ43" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="EA43" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="EB43" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="EC43" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="ED43" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="EE43" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="EF43" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="EG43" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EH43" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EI43" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="EJ43" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EK43" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="EL43" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EM43" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EN43" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EO43" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EP43" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EQ43" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="ER43" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="ES43" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="ET43" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EU43" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EV43" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EW43" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EX43" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EY43" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EZ43" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="FA43" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="FB43" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="FC43" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="FD43" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="FE43" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="44" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -14847,8 +16690,101 @@
       <c r="DM44" s="3" t="s">
         <v>984</v>
       </c>
+      <c r="DN44" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="DO44" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="DP44" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DQ44" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DR44" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DS44" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DT44" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DU44" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DV44" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DW44" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DX44" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DY44" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DZ44" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EA44" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EB44" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EC44" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="ED44" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EE44" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EF44" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EG44" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EH44" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EI44" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EJ44" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EK44" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EL44" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EM44" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EN44" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EO44" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EP44" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EQ44" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="ER44" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="45" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -15221,8 +17157,98 @@
       <c r="DT45" s="3" t="s">
         <v>983</v>
       </c>
+      <c r="DU45" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="DV45" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DW45" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DX45" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DY45" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DZ45" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EA45" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EB45" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="EC45" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="ED45" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="EE45" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EF45" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EG45" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EH45" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EI45" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EJ45" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EK45" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EL45" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EM45" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EN45" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EO45" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EP45" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EQ45" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="ER45" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="ES45" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="ET45" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EU45" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EV45" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EW45" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EX45" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="46" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -15562,8 +17588,107 @@
       <c r="DI46" s="3" t="s">
         <v>994</v>
       </c>
+      <c r="DJ46" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="DK46" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DL46" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DM46" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DN46" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DO46" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DP46" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DQ46" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DR46" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DS46" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DT46" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DU46" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DV46" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DW46" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DX46" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DY46" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DZ46" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EA46" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EB46" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EC46" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="ED46" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EE46" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EF46" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EG46" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EH46" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EI46" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EJ46" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EK46" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EL46" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EM46" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EN46" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EO46" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EP46" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="47" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -15903,8 +18028,107 @@
       <c r="DI47" s="3" t="s">
         <v>985</v>
       </c>
+      <c r="DJ47" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="DK47" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DL47" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DM47" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DN47" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DO47" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DP47" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DQ47" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DR47" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DS47" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DT47" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DU47" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DV47" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DW47" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DX47" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DY47" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DZ47" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EA47" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EB47" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EC47" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="ED47" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EE47" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EF47" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EG47" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EH47" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EI47" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EJ47" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EK47" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EL47" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EM47" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EN47" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EO47" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EP47" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="48" spans="1:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -16280,8 +18504,107 @@
       <c r="DU48" s="3" t="s">
         <v>986</v>
       </c>
+      <c r="DV48" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="DW48" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DX48" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DY48" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DZ48" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="EA48" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="EB48" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="EC48" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="ED48" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EE48" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EF48" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="EG48" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EH48" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="EI48" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EJ48" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EK48" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="EL48" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EM48" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EN48" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EO48" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EP48" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EQ48" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="ER48" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="ES48" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="ET48" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EU48" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EV48" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EW48" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EX48" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EY48" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EZ48" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="FA48" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="FB48" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="49" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -16618,8 +18941,101 @@
       <c r="DH49" s="3" t="s">
         <v>994</v>
       </c>
+      <c r="DI49" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DJ49" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DK49" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DL49" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DM49" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DN49" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DO49" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DP49" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DQ49" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DR49" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DS49" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DT49" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DU49" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DV49" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DW49" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DX49" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DY49" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DZ49" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EA49" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EB49" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EC49" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="ED49" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EE49" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EF49" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EG49" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EH49" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EI49" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EJ49" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EK49" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EL49" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EM49" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="50" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -16944,8 +19360,101 @@
       <c r="DD50" s="3" t="s">
         <v>994</v>
       </c>
+      <c r="DE50" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DF50" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DG50" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DH50" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DI50" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DJ50" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DK50" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DL50" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DM50" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DN50" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DO50" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DP50" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DQ50" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DR50" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DS50" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DT50" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DU50" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DV50" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="DW50" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="DX50" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="DY50" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="DZ50" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EA50" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EB50" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EC50" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="ED50" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EE50" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EF50" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EG50" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EH50" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EI50" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="51" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -17288,8 +19797,101 @@
       <c r="DJ51" s="3" t="s">
         <v>994</v>
       </c>
+      <c r="DK51" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DL51" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DM51" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DN51" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DO51" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DP51" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DQ51" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DR51" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DS51" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DT51" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DU51" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DV51" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DW51" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DX51" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DY51" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DZ51" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EA51" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EB51" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EC51" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="ED51" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EE51" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EF51" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EG51" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EH51" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EI51" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EJ51" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EK51" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EL51" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EM51" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EN51" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EO51" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="52" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -17623,8 +20225,101 @@
       <c r="DG52" s="3" t="s">
         <v>994</v>
       </c>
+      <c r="DH52" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DI52" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="DJ52" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="DK52" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DL52" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="DM52" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="DN52" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DO52" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DP52" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="DQ52" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DR52" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DS52" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DT52" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DU52" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DV52" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DW52" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DX52" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="DY52" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="DZ52" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EA52" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EB52" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EC52" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="ED52" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EE52" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="EF52" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EG52" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EH52" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EI52" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EJ52" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="EK52" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EL52" s="3" t="s">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="53" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -17913,8 +20608,62 @@
       <c r="CR53" s="3" t="s">
         <v>994</v>
       </c>
+      <c r="CS53" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="CT53" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="CU53" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="CV53" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CW53" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CX53" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CY53" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CZ53" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="DA53" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DB53" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DC53" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DD53" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DE53" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DF53" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DG53" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DH53" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DI53" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DJ53" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="54" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -18197,8 +20946,17 @@
       <c r="CP54" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CQ54" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="CR54" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="CS54" s="3" t="s">
+        <v>1155</v>
+      </c>
     </row>
-    <row r="55" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -18484,8 +21242,14 @@
       <c r="CQ55" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CR55" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="CS55" s="3" t="s">
+        <v>1064</v>
+      </c>
     </row>
-    <row r="56" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -18771,8 +21535,14 @@
       <c r="CQ56" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CR56" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="CS56" s="3" t="s">
+        <v>1064</v>
+      </c>
     </row>
-    <row r="57" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -19058,8 +21828,14 @@
       <c r="CQ57" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CR57" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="CS57" s="3" t="s">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="58" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -19345,8 +22121,59 @@
       <c r="CQ58" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CR58" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="CS58" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="CT58" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CU58" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CV58" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CW58" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CX58" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CY58" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CZ58" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DA58" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DB58" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DC58" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DD58" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DE58" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DF58" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DG58" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DH58" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="59" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -19620,8 +22447,20 @@
       <c r="CM59" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CN59" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CO59" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="CP59" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CQ59" s="3" t="s">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="60" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -19892,8 +22731,20 @@
       <c r="CL60" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CM60" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CN60" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="CO60" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CP60" s="3" t="s">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="61" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -20164,8 +23015,20 @@
       <c r="CL61" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CM61" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CN61" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="CO61" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CP61" s="3" t="s">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="62" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -20430,8 +23293,65 @@
       <c r="CJ62" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="CK62" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CL62" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="CM62" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CN62" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CO62" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CP62" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CQ62" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CR62" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CS62" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CT62" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CU62" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CV62" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CW62" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CX62" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CY62" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CZ62" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DA62" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DB62" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DC62" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="63" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -20705,8 +23625,65 @@
       <c r="CM63" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="CN63" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CO63" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="CP63" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CQ63" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CR63" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CS63" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CT63" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CU63" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CV63" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CW63" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CX63" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CY63" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CZ63" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DA63" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DB63" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DC63" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DD63" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DE63" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DF63" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="64" spans="1:114" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -20929,8 +23906,89 @@
       <c r="BV64" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="BW64" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BX64" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BY64" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BZ64" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CA64" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CB64" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CC64" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="CD64" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CE64" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CF64" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CG64" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CH64" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CI64" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CJ64" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CK64" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CL64" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CM64" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CN64" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CO64" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CP64" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CQ64" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CR64" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CS64" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CT64" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CU64" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CV64" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CW64" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -21150,8 +24208,134 @@
       <c r="BU65" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BV65" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BW65" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BX65" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BY65" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="BZ65" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CA65" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CB65" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="CC65" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CD65" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CE65" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CF65" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CG65" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CH65" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CI65" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CJ65" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CK65" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CL65" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CM65" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CN65" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CO65" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CP65" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CQ65" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CR65" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CS65" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CT65" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CU65" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CV65" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CW65" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CX65" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CY65" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CZ65" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="DA65" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="DB65" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DC65" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DD65" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DE65" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DF65" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DG65" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DH65" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DI65" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DJ65" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DK65" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -21374,8 +24558,89 @@
       <c r="BV66" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="BW66" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BX66" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BY66" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BZ66" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CA66" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CB66" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CC66" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="CD66" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CE66" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CF66" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CG66" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CH66" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CI66" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CJ66" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CK66" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CL66" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CM66" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CN66" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CO66" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CP66" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CQ66" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CR66" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CS66" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CT66" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CU66" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CV66" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CW66" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="67" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -21601,8 +24866,89 @@
       <c r="BW67" s="3" t="s">
         <v>1011</v>
       </c>
+      <c r="BX67" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BY67" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BZ67" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CA67" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CB67" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CC67" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CD67" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="CE67" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CF67" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CG67" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CH67" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CI67" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CJ67" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CK67" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CL67" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CM67" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CN67" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CO67" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CP67" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CQ67" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CR67" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CS67" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CT67" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CU67" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CV67" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CW67" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CX67" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -21825,8 +25171,92 @@
       <c r="BV68" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BW68" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BX68" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BY68" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BZ68" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CA68" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CB68" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CC68" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="CD68" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CE68" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CF68" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CG68" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CH68" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CI68" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CJ68" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CK68" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CL68" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CM68" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CN68" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CO68" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CP68" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CQ68" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CR68" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CS68" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CT68" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CU68" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CV68" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CW68" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CX68" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="69" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -22022,8 +25452,134 @@
       <c r="BM69" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BN69" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BO69" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BP69" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BQ69" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BR69" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BS69" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BT69" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU69" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BV69" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BW69" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BX69" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BY69" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BZ69" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CA69" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CB69" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CC69" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CD69" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CE69" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CF69" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CG69" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CH69" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CI69" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CJ69" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CK69" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CL69" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CM69" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CN69" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CO69" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CP69" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CQ69" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CR69" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CS69" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CT69" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CU69" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CV69" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CW69" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CX69" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CY69" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CZ69" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DA69" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DB69" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DC69" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="70" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -22219,8 +25775,89 @@
       <c r="BM70" s="3" t="s">
         <v>1007</v>
       </c>
+      <c r="BN70" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BO70" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BP70" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BQ70" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BR70" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BS70" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BT70" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU70" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BV70" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BW70" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BX70" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BY70" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BZ70" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CA70" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CB70" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CC70" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CD70" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CE70" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CF70" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CG70" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CH70" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CI70" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CJ70" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CK70" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CL70" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CM70" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CN70" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="71" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -22416,8 +26053,89 @@
       <c r="BM71" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BN71" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BO71" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BP71" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BQ71" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BR71" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BS71" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BT71" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU71" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BV71" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BW71" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BX71" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BY71" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BZ71" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CA71" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CB71" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CC71" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CD71" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CE71" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CF71" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CG71" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CH71" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CI71" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CJ71" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CK71" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CL71" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CM71" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CN71" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="72" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -22616,8 +26334,134 @@
       <c r="BN72" s="3" t="s">
         <v>1007</v>
       </c>
+      <c r="BO72" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BP72" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BQ72" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BR72" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BS72" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BT72" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BU72" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BV72" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BW72" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BX72" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BY72" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BZ72" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CA72" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CB72" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CC72" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CD72" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CE72" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CF72" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CG72" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CH72" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CI72" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CJ72" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CK72" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CL72" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CM72" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CN72" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CO72" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CP72" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CQ72" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CR72" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CS72" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CT72" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CU72" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CV72" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CW72" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CX72" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CY72" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CZ72" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DA72" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DB72" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DC72" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DD72" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="73" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -22828,8 +26672,143 @@
       <c r="BR73" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BS73" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BT73" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BU73" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BV73" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BW73" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BX73" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BY73" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BZ73" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CA73" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CB73" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CC73" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CD73" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CE73" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CF73" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CG73" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CH73" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CI73" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CJ73" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CK73" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CL73" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CM73" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CN73" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CO73" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CP73" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CQ73" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CR73" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CS73" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CT73" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CU73" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CV73" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CW73" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CX73" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CY73" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CZ73" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="DA73" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="DB73" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DC73" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DD73" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DE73" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DF73" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DG73" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DH73" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DI73" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DJ73" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DK73" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="74" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -23028,8 +27007,143 @@
       <c r="BN74" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BO74" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BP74" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BQ74" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BR74" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BS74" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BT74" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BU74" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BV74" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BW74" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BX74" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BY74" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BZ74" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CA74" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CB74" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CC74" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CD74" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CE74" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CF74" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CG74" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CH74" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CI74" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CJ74" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CK74" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CL74" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CM74" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CN74" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CO74" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CP74" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CQ74" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CR74" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CS74" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CT74" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CU74" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CV74" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CW74" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CX74" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CY74" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CZ74" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DA74" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DB74" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DC74" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DD74" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DE74" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DF74" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DG74" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="75" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -23234,8 +27348,143 @@
       <c r="BP75" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BQ75" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BR75" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BS75" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BT75" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BU75" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BV75" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BW75" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BX75" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BY75" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BZ75" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CA75" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CB75" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CC75" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CD75" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CE75" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CF75" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CG75" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CH75" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CI75" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CJ75" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CK75" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CL75" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CM75" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CN75" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CO75" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CP75" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CQ75" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CR75" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CS75" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CT75" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CU75" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CV75" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CW75" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CX75" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CY75" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CZ75" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DA75" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DB75" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DC75" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DD75" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DE75" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DF75" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DG75" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DH75" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DI75" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="76" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -23434,8 +27683,149 @@
       <c r="BN76" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BO76" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BP76" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BQ76" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BR76" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BS76" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BT76" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BU76" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BV76" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BW76" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BX76" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BY76" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BZ76" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CA76" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CB76" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CC76" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CD76" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CE76" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CF76" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CG76" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CH76" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CI76" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CJ76" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CK76" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CL76" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CM76" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CN76" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CO76" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CP76" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CQ76" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CR76" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CS76" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CT76" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CU76" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CV76" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CW76" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CX76" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CY76" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CZ76" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DA76" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DB76" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DC76" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DD76" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DE76" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DF76" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DG76" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DH76" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DI76" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="77" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -23640,8 +28030,119 @@
       <c r="BP77" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BQ77" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BR77" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BS77" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BT77" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BU77" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BV77" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BW77" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BX77" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BY77" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BZ77" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="CA77" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="CB77" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="CC77" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="CD77" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CE77" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CF77" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CG77" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CH77" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CI77" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CJ77" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CK77" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CL77" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CM77" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CN77" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CO77" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CP77" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CQ77" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CR77" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CS77" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CT77" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CU77" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CV77" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CW77" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CX77" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CY77" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CZ77" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="DA77" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="78" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -23855,8 +28356,98 @@
       <c r="BS78" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BT78" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BU78" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BV78" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BW78" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BX78" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BY78" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BZ78" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="CA78" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CB78" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CC78" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CD78" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CE78" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CF78" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CG78" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CH78" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CI78" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CJ78" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CK78" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CL78" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CM78" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CN78" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CO78" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CP78" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CQ78" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CR78" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CS78" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CT78" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CU78" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CV78" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CW78" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="79" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -24049,8 +28640,119 @@
       <c r="BL79" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BM79" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BN79" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BO79" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BP79" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BQ79" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BR79" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BS79" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BT79" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU79" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BV79" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BW79" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BX79" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BY79" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BZ79" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CA79" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CB79" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CC79" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CD79" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CE79" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CF79" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CG79" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CH79" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CI79" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CJ79" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CK79" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CL79" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CM79" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CN79" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CO79" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CP79" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CQ79" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CR79" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CS79" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CT79" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CU79" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CV79" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CW79" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="80" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:115" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -24243,8 +28945,119 @@
       <c r="BL80" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BM80" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BN80" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BO80" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BP80" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BQ80" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BR80" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BS80" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BT80" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU80" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BV80" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BW80" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BX80" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BY80" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BZ80" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CA80" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CB80" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CC80" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CD80" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CE80" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CF80" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CG80" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CH80" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CI80" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CJ80" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CK80" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CL80" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CM80" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CN80" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CO80" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CP80" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CQ80" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CR80" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CS80" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CT80" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CU80" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CV80" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CW80" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -24437,8 +29250,119 @@
       <c r="BL81" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BM81" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BN81" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BO81" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BP81" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BQ81" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BR81" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BS81" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BT81" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU81" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BV81" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BW81" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BX81" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BY81" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BZ81" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CA81" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CB81" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CC81" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CD81" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CE81" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CF81" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CG81" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CH81" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CI81" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CJ81" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CK81" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CL81" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CM81" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CN81" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CO81" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CP81" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CQ81" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CR81" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CS81" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CT81" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CU81" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CV81" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CW81" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -24631,8 +29555,119 @@
       <c r="BL82" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BM82" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BN82" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BO82" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BP82" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BQ82" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BR82" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BS82" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BT82" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BU82" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BV82" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BW82" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BX82" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BY82" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BZ82" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CA82" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CB82" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="CC82" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CD82" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CE82" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CF82" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CG82" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CH82" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CI82" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CJ82" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CK82" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CL82" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CM82" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CN82" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CO82" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CP82" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CQ82" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CR82" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CS82" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CT82" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CU82" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CV82" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CW82" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -24825,8 +29860,155 @@
       <c r="BL83" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BM83" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BN83" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BO83" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BP83" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BQ83" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BR83" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BS83" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BT83" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BU83" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BV83" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BW83" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BX83" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BY83" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BZ83" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CA83" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CB83" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CC83" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CD83" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CE83" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CF83" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="CG83" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CH83" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CI83" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CJ83" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CK83" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CL83" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CM83" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CN83" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CO83" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CP83" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CQ83" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CR83" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CS83" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CT83" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CU83" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CV83" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CW83" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CX83" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CY83" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CZ83" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DA83" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="DB83" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="DC83" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="DD83" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DE83" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="DF83" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="DG83" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DH83" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DI83" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -25013,8 +30195,140 @@
       <c r="BJ84" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BK84" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL84" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM84" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN84" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO84" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP84" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ84" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR84" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS84" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT84" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU84" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV84" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW84" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX84" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY84" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ84" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA84" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB84" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC84" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD84" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE84" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF84" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG84" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH84" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI84" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ84" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK84" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL84" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM84" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="CN84" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CO84" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CP84" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CQ84" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CR84" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CS84" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CT84" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CU84" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CV84" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CW84" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CX84" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CY84" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="CZ84" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="DA84" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="DB84" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -25201,8 +30515,95 @@
       <c r="BJ85" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BK85" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL85" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM85" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN85" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO85" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP85" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ85" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR85" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS85" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT85" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU85" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV85" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW85" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX85" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY85" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ85" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA85" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB85" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC85" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD85" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE85" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF85" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG85" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH85" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI85" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ85" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK85" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL85" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM85" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -25389,8 +30790,95 @@
       <c r="BJ86" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BK86" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL86" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM86" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN86" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO86" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP86" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ86" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR86" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS86" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT86" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU86" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV86" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW86" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX86" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY86" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ86" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA86" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB86" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC86" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD86" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE86" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF86" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG86" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH86" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI86" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ86" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK86" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL86" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM86" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -25577,8 +31065,95 @@
       <c r="BJ87" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BK87" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL87" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM87" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN87" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO87" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP87" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ87" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR87" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS87" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT87" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU87" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV87" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW87" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX87" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY87" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ87" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA87" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB87" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC87" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD87" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE87" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF87" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG87" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH87" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI87" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ87" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK87" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL87" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM87" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -25765,8 +31340,95 @@
       <c r="BJ88" s="3" t="s">
         <v>1013</v>
       </c>
+      <c r="BK88" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL88" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM88" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN88" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO88" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP88" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ88" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR88" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS88" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT88" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU88" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV88" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW88" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX88" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY88" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ88" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA88" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB88" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC88" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD88" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE88" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF88" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG88" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH88" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI88" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ88" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK88" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL88" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM88" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -25953,8 +31615,95 @@
       <c r="BJ89" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BK89" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL89" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM89" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN89" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO89" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP89" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ89" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR89" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS89" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT89" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU89" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV89" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW89" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX89" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY89" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ89" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA89" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB89" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC89" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD89" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE89" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF89" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG89" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH89" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI89" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ89" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK89" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL89" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM89" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -26141,8 +31890,95 @@
       <c r="BJ90" s="3" t="s">
         <v>1015</v>
       </c>
+      <c r="BK90" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL90" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM90" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN90" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO90" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP90" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ90" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR90" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS90" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT90" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU90" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV90" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW90" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX90" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY90" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ90" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA90" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB90" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC90" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD90" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE90" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF90" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG90" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH90" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI90" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ90" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK90" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL90" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM90" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -26329,8 +32165,95 @@
       <c r="BJ91" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BK91" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL91" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM91" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN91" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO91" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP91" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ91" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR91" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS91" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT91" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU91" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV91" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW91" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX91" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY91" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ91" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA91" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB91" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC91" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD91" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE91" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF91" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG91" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH91" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI91" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ91" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK91" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL91" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM91" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -26517,8 +32440,95 @@
       <c r="BJ92" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BK92" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BL92" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BM92" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BN92" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BO92" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BP92" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ92" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BR92" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BS92" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BT92" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BU92" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BV92" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BW92" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BX92" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BY92" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BZ92" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="CA92" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CB92" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="CC92" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="CD92" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CE92" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CF92" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="CG92" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="CH92" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CI92" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CJ92" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CK92" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CL92" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="CM92" s="3" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -26702,8 +32712,113 @@
       <c r="BI93" s="3" t="s">
         <v>1015</v>
       </c>
+      <c r="BJ93" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BK93" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BL93" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BM93" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BN93" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BO93" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BP93" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BQ93" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BR93" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BS93" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BT93" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BU93" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BV93" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BW93" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BX93" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BY93" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BZ93" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CA93" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CB93" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CC93" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CD93" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CE93" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CF93" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CG93" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CH93" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CI93" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CJ93" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CK93" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CL93" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CM93" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CN93" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CO93" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="CP93" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="CQ93" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="CR93" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -26887,8 +33002,68 @@
       <c r="BI94" s="3" t="s">
         <v>1017</v>
       </c>
+      <c r="BJ94" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BK94" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BL94" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BM94" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BN94" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BO94" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BP94" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BQ94" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BR94" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BS94" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BT94" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BU94" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BV94" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BW94" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BX94" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BY94" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BZ94" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CA94" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CB94" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CC94" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -27072,8 +33247,68 @@
       <c r="BI95" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BJ95" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BK95" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BL95" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BM95" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BN95" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BO95" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BP95" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BQ95" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BR95" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BS95" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BT95" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BU95" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BV95" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BW95" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BX95" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BY95" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BZ95" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="CA95" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CB95" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CC95" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -27254,8 +33489,68 @@
       <c r="BH96" s="3" t="s">
         <v>1017</v>
       </c>
+      <c r="BI96" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BJ96" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BK96" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BL96" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BM96" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BN96" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BO96" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BP96" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BQ96" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BR96" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BS96" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BT96" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BU96" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BV96" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BW96" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BX96" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BY96" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BZ96" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CA96" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CB96" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="97" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -27436,8 +33731,68 @@
       <c r="BH97" s="3" t="s">
         <v>1017</v>
       </c>
+      <c r="BI97" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BJ97" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BK97" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BL97" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BM97" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BN97" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BO97" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BP97" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BQ97" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BR97" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BS97" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BT97" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BU97" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BV97" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BW97" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BX97" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BY97" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BZ97" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CA97" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CB97" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="98" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -27618,8 +33973,68 @@
       <c r="BH98" s="3" t="s">
         <v>1019</v>
       </c>
+      <c r="BI98" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BJ98" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BK98" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BL98" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BM98" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BN98" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BO98" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BP98" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BQ98" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BR98" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BS98" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BT98" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BU98" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BV98" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BW98" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BX98" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BY98" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BZ98" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CA98" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CB98" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="99" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -27800,8 +34215,68 @@
       <c r="BH99" s="3" t="s">
         <v>1032</v>
       </c>
+      <c r="BI99" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BJ99" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BK99" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BL99" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BM99" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BN99" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BO99" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BP99" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BQ99" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BR99" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BS99" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BT99" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BU99" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BV99" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BW99" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BX99" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BY99" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BZ99" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CA99" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CB99" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="100" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -27979,8 +34454,68 @@
       <c r="BG100" s="3" t="s">
         <v>1021</v>
       </c>
+      <c r="BH100" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BI100" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BJ100" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BK100" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BL100" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BM100" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BN100" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BO100" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BP100" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BQ100" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BR100" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BS100" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BT100" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BU100" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BV100" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BW100" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="BX100" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BY100" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="BZ100" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CA100" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="101" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -28158,8 +34693,53 @@
       <c r="BG101" s="3" t="s">
         <v>1023</v>
       </c>
+      <c r="BH101" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BI101" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BJ101" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="BK101" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="BL101" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="BM101" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BN101" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BO101" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BP101" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BQ101" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BR101" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BS101" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BT101" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BU101" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BV101" s="3" t="s">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="102" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -28209,7 +34789,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -28217,7 +34797,7 @@
         <v>10323</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -28228,7 +34808,7 @@
         <v>10325</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -28263,7 +34843,7 @@
         <v>10333</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -28307,7 +34887,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -28354,7 +34934,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -28401,7 +34981,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -28448,7 +35028,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -28495,7 +35075,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -28542,7 +35122,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
